--- a/boh -datos.xlsx
+++ b/boh -datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lautaro\Documents\SQL Server Management Studio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752D74BE-A46B-496D-B107-F910277CF6BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8557E1-3CC9-41C7-95CC-15D0E2E7D321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" firstSheet="9" activeTab="9" xr2:uid="{FB0539CD-FF84-4EDB-A690-CF497FA6FC25}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" firstSheet="3" activeTab="3" xr2:uid="{FB0539CD-FF84-4EDB-A690-CF497FA6FC25}"/>
   </bookViews>
   <sheets>
     <sheet name="canales" sheetId="3" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="ventas" sheetId="17" r:id="rId15"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">grilla!$B$1:$D$74</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">productosXventa!$G$1:$M$244</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="146">
   <si>
     <t>upc</t>
   </si>
@@ -499,13 +500,25 @@
   <si>
     <t>insert into productosXventa(upc, idVenta, precioUnitario, cantidad) values('</t>
   </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>insert into grilla(</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -554,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -912,7 +925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6A54B75-0038-4D61-8770-4B54D6121472}">
   <dimension ref="A1:N244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D216" workbookViewId="0">
+    <sheetView topLeftCell="D171" workbookViewId="0">
       <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
@@ -954,19 +967,19 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4840</v>
+        <v>5240</v>
       </c>
       <c r="B2" s="3" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">+VLOOKUP(A2,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D2" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ref="D2:D65" ca="1" si="0">+RANDBETWEEN(1,13)</f>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>141</v>
@@ -999,19 +1012,19 @@
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" cm="1">
         <f t="array" aca="1" ref="A3" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5270</v>
+        <v>4970</v>
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">+VLOOKUP(A3,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D3" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>141</v>
@@ -1044,19 +1057,19 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" cm="1">
         <f t="array" aca="1" ref="A4" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5030</v>
+        <v>5370</v>
       </c>
       <c r="B4" s="3" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3">
         <f ca="1">+VLOOKUP(A4,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D4" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>141</v>
@@ -1089,19 +1102,19 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" cm="1">
         <f t="array" aca="1" ref="A5" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5260</v>
+        <v>4790</v>
       </c>
       <c r="B5" s="3" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C5" s="3">
         <f ca="1">+VLOOKUP(A5,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D5" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>141</v>
@@ -1134,19 +1147,19 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" cm="1">
         <f t="array" aca="1" ref="A6" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4880</v>
+        <v>5000</v>
       </c>
       <c r="B6" s="3" cm="1">
         <f t="array" aca="1" ref="B6" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="C6" s="3">
         <f ca="1">+VLOOKUP(A6,productos!$A$1:$H$74,7,0)</f>
         <v>1999</v>
       </c>
       <c r="D6" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>141</v>
@@ -1179,19 +1192,19 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="3" cm="1">
         <f t="array" aca="1" ref="A7" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5280</v>
+        <v>4830</v>
       </c>
       <c r="B7" s="3" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="C7" s="3">
         <f ca="1">+VLOOKUP(A7,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D7" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>141</v>
@@ -1224,19 +1237,19 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="3" cm="1">
         <f t="array" aca="1" ref="A8" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5040</v>
+        <v>4760</v>
       </c>
       <c r="B8" s="3" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3">
         <f ca="1">+VLOOKUP(A8,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D8" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>141</v>
@@ -1269,19 +1282,19 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="3" cm="1">
         <f t="array" aca="1" ref="A9" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4720</v>
+        <v>5250</v>
       </c>
       <c r="B9" s="3" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <f ca="1">+VLOOKUP(A9,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D9" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>141</v>
@@ -1314,18 +1327,18 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3" cm="1">
         <f t="array" aca="1" ref="A10" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4800</v>
+        <v>4840</v>
       </c>
       <c r="B10" s="3" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="C10" s="3">
         <f ca="1">+VLOOKUP(A10,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="D10" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1359,19 +1372,19 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3" cm="1">
         <f t="array" aca="1" ref="A11" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4830</v>
+        <v>5370</v>
       </c>
       <c r="B11" s="3" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <f ca="1">+VLOOKUP(A11,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D11" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>141</v>
@@ -1408,15 +1421,15 @@
       </c>
       <c r="B12" s="3" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C12" s="3">
         <f ca="1">+VLOOKUP(A12,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D12" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>141</v>
@@ -1449,19 +1462,19 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3" cm="1">
         <f t="array" aca="1" ref="A13" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4790</v>
+        <v>5150</v>
       </c>
       <c r="B13" s="3" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3">
         <f ca="1">+VLOOKUP(A13,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D13" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>141</v>
@@ -1494,19 +1507,19 @@
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="3" cm="1">
         <f t="array" aca="1" ref="A14" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5250</v>
+        <v>4880</v>
       </c>
       <c r="B14" s="3" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3">
         <f ca="1">+VLOOKUP(A14,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>1999</v>
       </c>
       <c r="D14" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>141</v>
@@ -1537,21 +1550,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" cm="1">
+      <c r="A15" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="A15" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5150</v>
+        <v>upc</v>
       </c>
       <c r="B15" s="3" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>34</v>
-      </c>
-      <c r="C15" s="3">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="str">
         <f ca="1">+VLOOKUP(A15,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>precio</v>
       </c>
       <c r="D15" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>141</v>
@@ -1584,19 +1597,19 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="3" cm="1">
         <f t="array" aca="1" ref="A16" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>5300</v>
       </c>
       <c r="B16" s="3" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
         <f ca="1">+VLOOKUP(A16,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D16" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>141</v>
@@ -1629,19 +1642,19 @@
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="3" cm="1">
         <f t="array" aca="1" ref="A17" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5060</v>
+        <v>4820</v>
       </c>
       <c r="B17" s="3" cm="1">
         <f t="array" aca="1" ref="B17" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3">
         <f ca="1">+VLOOKUP(A17,productos!$A$1:$H$74,7,0)</f>
-        <v>5999</v>
+        <v>3999</v>
       </c>
       <c r="D17" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>141</v>
@@ -1674,19 +1687,19 @@
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="3" cm="1">
         <f t="array" aca="1" ref="A18" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5350</v>
+        <v>4880</v>
       </c>
       <c r="B18" s="3" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="C18" s="3">
         <f ca="1">+VLOOKUP(A18,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D18" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>141</v>
@@ -1719,19 +1732,19 @@
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="3" cm="1">
         <f t="array" aca="1" ref="A19" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5340</v>
+        <v>5030</v>
       </c>
       <c r="B19" s="3" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C19" s="3">
         <f ca="1">+VLOOKUP(A19,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D19" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>141</v>
@@ -1764,19 +1777,19 @@
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="3" cm="1">
         <f t="array" aca="1" ref="A20" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5010</v>
+        <v>5340</v>
       </c>
       <c r="B20" s="3" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C20" s="3">
         <f ca="1">+VLOOKUP(A20,productos!$A$1:$H$74,7,0)</f>
-        <v>1799</v>
+        <v>2999</v>
       </c>
       <c r="D20" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>141</v>
@@ -1809,19 +1822,19 @@
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="3" cm="1">
         <f t="array" aca="1" ref="A21" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5290</v>
+        <v>5040</v>
       </c>
       <c r="B21" s="3" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="3">
         <f ca="1">+VLOOKUP(A21,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D21" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>141</v>
@@ -1854,19 +1867,19 @@
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="3" cm="1">
         <f t="array" aca="1" ref="A22" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5200</v>
+        <v>4950</v>
       </c>
       <c r="B22" s="3" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C22" s="3">
         <f ca="1">+VLOOKUP(A22,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="D22" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>141</v>
@@ -1899,19 +1912,19 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="3" cm="1">
         <f t="array" aca="1" ref="A23" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4840</v>
+        <v>4780</v>
       </c>
       <c r="B23" s="3" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3">
         <f ca="1">+VLOOKUP(A23,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D23" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>141</v>
@@ -1944,19 +1957,19 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="3" cm="1">
         <f t="array" aca="1" ref="A24" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4770</v>
+        <v>5170</v>
       </c>
       <c r="B24" s="3" cm="1">
         <f t="array" aca="1" ref="B24" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3">
         <f ca="1">+VLOOKUP(A24,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D24" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>141</v>
@@ -1989,19 +2002,19 @@
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="3" cm="1">
         <f t="array" aca="1" ref="A25" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4970</v>
+        <v>4850</v>
       </c>
       <c r="B25" s="3" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
         <f ca="1">+VLOOKUP(A25,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D25" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>141</v>
@@ -2034,19 +2047,19 @@
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="3" cm="1">
         <f t="array" aca="1" ref="A26" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4860</v>
+        <v>4660</v>
       </c>
       <c r="B26" s="3" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3">
         <f ca="1">+VLOOKUP(A26,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D26" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>141</v>
@@ -2079,19 +2092,19 @@
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="3" cm="1">
         <f t="array" aca="1" ref="A27" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4880</v>
+        <v>4690</v>
       </c>
       <c r="B27" s="3" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C27" s="3">
         <f ca="1">+VLOOKUP(A27,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="D27" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>141</v>
@@ -2124,19 +2137,19 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="3" cm="1">
         <f t="array" aca="1" ref="A28" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5280</v>
+        <v>4650</v>
       </c>
       <c r="B28" s="3" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C28" s="3">
         <f ca="1">+VLOOKUP(A28,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D28" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>141</v>
@@ -2169,19 +2182,19 @@
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="3" cm="1">
         <f t="array" aca="1" ref="A29" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5040</v>
+        <v>4670</v>
       </c>
       <c r="B29" s="3" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C29" s="3">
         <f ca="1">+VLOOKUP(A29,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D29" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>141</v>
@@ -2214,19 +2227,19 @@
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="3" cm="1">
         <f t="array" aca="1" ref="A30" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5110</v>
+        <v>5180</v>
       </c>
       <c r="B30" s="3" cm="1">
         <f t="array" aca="1" ref="B30" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="C30" s="3">
         <f ca="1">+VLOOKUP(A30,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D30" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>141</v>
@@ -2259,19 +2272,19 @@
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="3" cm="1">
         <f t="array" aca="1" ref="A31" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5300</v>
+        <v>4710</v>
       </c>
       <c r="B31" s="3" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="C31" s="3">
         <f ca="1">+VLOOKUP(A31,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D31" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>141</v>
@@ -2304,19 +2317,19 @@
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="3" cm="1">
         <f t="array" aca="1" ref="A32" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>4960</v>
       </c>
       <c r="B32" s="3" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C32" s="3">
         <f ca="1">+VLOOKUP(A32,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D32" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>141</v>
@@ -2349,18 +2362,18 @@
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="3" cm="1">
         <f t="array" aca="1" ref="A33" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5090</v>
+        <v>4780</v>
       </c>
       <c r="B33" s="3" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C33" s="3">
         <f ca="1">+VLOOKUP(A33,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D33" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2394,18 +2407,18 @@
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="3" cm="1">
         <f t="array" aca="1" ref="A34" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>5370</v>
       </c>
       <c r="B34" s="3" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C34" s="3">
         <f ca="1">+VLOOKUP(A34,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D34" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -2439,19 +2452,19 @@
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="3" cm="1">
         <f t="array" aca="1" ref="A35" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5030</v>
+        <v>4830</v>
       </c>
       <c r="B35" s="3" cm="1">
         <f t="array" aca="1" ref="B35" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="C35" s="3">
         <f ca="1">+VLOOKUP(A35,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D35" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>141</v>
@@ -2484,19 +2497,19 @@
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="3" cm="1">
         <f t="array" aca="1" ref="A36" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5370</v>
+        <v>5270</v>
       </c>
       <c r="B36" s="3" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3">
         <f ca="1">+VLOOKUP(A36,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D36" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>141</v>
@@ -2529,19 +2542,19 @@
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="3" cm="1">
         <f t="array" aca="1" ref="A37" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4680</v>
+        <v>5070</v>
       </c>
       <c r="B37" s="3" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C37" s="3">
         <f ca="1">+VLOOKUP(A37,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D37" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>141</v>
@@ -2574,19 +2587,19 @@
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="3" cm="1">
         <f t="array" aca="1" ref="A38" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4810</v>
+        <v>5330</v>
       </c>
       <c r="B38" s="3" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C38" s="3">
         <f ca="1">+VLOOKUP(A38,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D38" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>141</v>
@@ -2619,19 +2632,19 @@
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="3" cm="1">
         <f t="array" aca="1" ref="A39" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5040</v>
+        <v>5210</v>
       </c>
       <c r="B39" s="3" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C39" s="3">
         <f ca="1">+VLOOKUP(A39,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D39" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>141</v>
@@ -2664,19 +2677,19 @@
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="3" cm="1">
         <f t="array" aca="1" ref="A40" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4950</v>
+        <v>5270</v>
       </c>
       <c r="B40" s="3" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3">
         <f ca="1">+VLOOKUP(A40,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D40" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>141</v>
@@ -2709,18 +2722,18 @@
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="3" cm="1">
         <f t="array" aca="1" ref="A41" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4800</v>
+        <v>4810</v>
       </c>
       <c r="B41" s="3" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C41" s="3">
         <f ca="1">+VLOOKUP(A41,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D41" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
       <c r="F41" s="3" t="s">
@@ -2754,19 +2767,19 @@
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="3" cm="1">
         <f t="array" aca="1" ref="A42" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4950</v>
+        <v>5240</v>
       </c>
       <c r="B42" s="3" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="C42" s="3">
         <f ca="1">+VLOOKUP(A42,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D42" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>141</v>
@@ -2799,19 +2812,19 @@
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="3" cm="1">
         <f t="array" aca="1" ref="A43" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5360</v>
+        <v>5050</v>
       </c>
       <c r="B43" s="3" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3">
         <f ca="1">+VLOOKUP(A43,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D43" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>141</v>
@@ -2844,19 +2857,19 @@
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="3" cm="1">
         <f t="array" aca="1" ref="A44" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5060</v>
+        <v>5080</v>
       </c>
       <c r="B44" s="3" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C44" s="3">
         <f ca="1">+VLOOKUP(A44,productos!$A$1:$H$74,7,0)</f>
-        <v>5999</v>
+        <v>2999</v>
       </c>
       <c r="D44" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>141</v>
@@ -2889,19 +2902,19 @@
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="3" cm="1">
         <f t="array" aca="1" ref="A45" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5220</v>
+        <v>5050</v>
       </c>
       <c r="B45" s="3" cm="1">
         <f t="array" aca="1" ref="B45" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C45" s="3">
         <f ca="1">+VLOOKUP(A45,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="D45" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>141</v>
@@ -2934,19 +2947,19 @@
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="3" cm="1">
         <f t="array" aca="1" ref="A46" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4870</v>
+        <v>5330</v>
       </c>
       <c r="B46" s="3" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3">
         <f ca="1">+VLOOKUP(A46,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>2999</v>
       </c>
       <c r="D46" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>141</v>
@@ -2979,19 +2992,19 @@
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="3" cm="1">
         <f t="array" aca="1" ref="A47" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4810</v>
+        <v>4720</v>
       </c>
       <c r="B47" s="3" cm="1">
         <f t="array" aca="1" ref="B47" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C47" s="3">
         <f ca="1">+VLOOKUP(A47,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D47" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>141</v>
@@ -3028,15 +3041,15 @@
       </c>
       <c r="B48" s="3" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="C48" s="3">
         <f ca="1">+VLOOKUP(A48,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D48" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>141</v>
@@ -3069,19 +3082,19 @@
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="3" cm="1">
         <f t="array" aca="1" ref="A49" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5110</v>
+        <v>5010</v>
       </c>
       <c r="B49" s="3" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C49" s="3">
         <f ca="1">+VLOOKUP(A49,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>1799</v>
       </c>
       <c r="D49" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>141</v>
@@ -3114,19 +3127,19 @@
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="3" cm="1">
         <f t="array" aca="1" ref="A50" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4840</v>
+        <v>5010</v>
       </c>
       <c r="B50" s="3" cm="1">
         <f t="array" aca="1" ref="B50" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="C50" s="3">
         <f ca="1">+VLOOKUP(A50,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>1799</v>
       </c>
       <c r="D50" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>141</v>
@@ -3159,19 +3172,19 @@
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="3" cm="1">
         <f t="array" aca="1" ref="A51" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>4940</v>
       </c>
       <c r="B51" s="3" cm="1">
         <f t="array" aca="1" ref="B51" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3">
         <f ca="1">+VLOOKUP(A51,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D51" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>141</v>
@@ -3204,19 +3217,19 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="3" cm="1">
         <f t="array" aca="1" ref="A52" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5280</v>
+        <v>5320</v>
       </c>
       <c r="B52" s="3" cm="1">
         <f t="array" aca="1" ref="B52" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="C52" s="3">
         <f ca="1">+VLOOKUP(A52,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D52" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>141</v>
@@ -3249,19 +3262,19 @@
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="3" cm="1">
         <f t="array" aca="1" ref="A53" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>4900</v>
       </c>
       <c r="B53" s="3" cm="1">
         <f t="array" aca="1" ref="B53" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C53" s="3">
         <f ca="1">+VLOOKUP(A53,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D53" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>141</v>
@@ -3294,19 +3307,19 @@
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="3" cm="1">
         <f t="array" aca="1" ref="A54" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4650</v>
+        <v>5290</v>
       </c>
       <c r="B54" s="3" cm="1">
         <f t="array" aca="1" ref="B54" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C54" s="3">
         <f ca="1">+VLOOKUP(A54,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D54" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>141</v>
@@ -3339,19 +3352,19 @@
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="3" cm="1">
         <f t="array" aca="1" ref="A55" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5220</v>
+        <v>5130</v>
       </c>
       <c r="B55" s="3" cm="1">
         <f t="array" aca="1" ref="B55" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C55" s="3">
         <f ca="1">+VLOOKUP(A55,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="D55" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>141</v>
@@ -3384,19 +3397,19 @@
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="3" cm="1">
         <f t="array" aca="1" ref="A56" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4660</v>
+        <v>5070</v>
       </c>
       <c r="B56" s="3" cm="1">
         <f t="array" aca="1" ref="B56" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C56" s="3">
         <f ca="1">+VLOOKUP(A56,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>1999</v>
       </c>
       <c r="D56" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>141</v>
@@ -3429,18 +3442,18 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="3" cm="1">
         <f t="array" aca="1" ref="A57" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5080</v>
+        <v>4820</v>
       </c>
       <c r="B57" s="3" cm="1">
         <f t="array" aca="1" ref="B57" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="C57" s="3">
         <f ca="1">+VLOOKUP(A57,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D57" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>3</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -3474,19 +3487,19 @@
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="3" cm="1">
         <f t="array" aca="1" ref="A58" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4760</v>
+        <v>4680</v>
       </c>
       <c r="B58" s="3" cm="1">
         <f t="array" aca="1" ref="B58" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C58" s="3">
         <f ca="1">+VLOOKUP(A58,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D58" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>141</v>
@@ -3519,19 +3532,19 @@
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="3" cm="1">
         <f t="array" aca="1" ref="A59" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4950</v>
+        <v>4680</v>
       </c>
       <c r="B59" s="3" cm="1">
         <f t="array" aca="1" ref="B59" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3">
         <f ca="1">+VLOOKUP(A59,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D59" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>141</v>
@@ -3564,19 +3577,19 @@
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="3" cm="1">
         <f t="array" aca="1" ref="A60" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5070</v>
+        <v>5160</v>
       </c>
       <c r="B60" s="3" cm="1">
         <f t="array" aca="1" ref="B60" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C60" s="3">
         <f ca="1">+VLOOKUP(A60,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="D60" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>141</v>
@@ -3609,19 +3622,19 @@
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="3" cm="1">
         <f t="array" aca="1" ref="A61" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4860</v>
+        <v>5330</v>
       </c>
       <c r="B61" s="3" cm="1">
         <f t="array" aca="1" ref="B61" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C61" s="3">
         <f ca="1">+VLOOKUP(A61,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D61" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>11</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>141</v>
@@ -3652,21 +3665,21 @@
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" cm="1">
+      <c r="A62" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="A62" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5080</v>
+        <v>upc</v>
       </c>
       <c r="B62" s="3" cm="1">
         <f t="array" aca="1" ref="B62" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>113</v>
-      </c>
-      <c r="C62" s="3">
+        <v>81</v>
+      </c>
+      <c r="C62" s="3" t="str">
         <f ca="1">+VLOOKUP(A62,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>precio</v>
       </c>
       <c r="D62" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>141</v>
@@ -3699,19 +3712,19 @@
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="3" cm="1">
         <f t="array" aca="1" ref="A63" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4890</v>
+        <v>5360</v>
       </c>
       <c r="B63" s="3" cm="1">
         <f t="array" aca="1" ref="B63" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C63" s="3">
         <f ca="1">+VLOOKUP(A63,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D63" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>12</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>141</v>
@@ -3744,19 +3757,19 @@
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="4" cm="1">
         <f t="array" aca="1" ref="A64" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5330</v>
+        <v>4920</v>
       </c>
       <c r="B64" s="3" cm="1">
         <f t="array" aca="1" ref="B64" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C64" s="3">
         <f ca="1">+VLOOKUP(A64,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D64" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>141</v>
@@ -3789,19 +3802,19 @@
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="3" cm="1">
         <f t="array" aca="1" ref="A65" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5220</v>
+        <v>5250</v>
       </c>
       <c r="B65" s="3" cm="1">
         <f t="array" aca="1" ref="B65" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C65" s="3">
         <f ca="1">+VLOOKUP(A65,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3999</v>
       </c>
       <c r="D65" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>141</v>
@@ -3834,19 +3847,19 @@
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="3" cm="1">
         <f t="array" aca="1" ref="A66" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4740</v>
+        <v>5250</v>
       </c>
       <c r="B66" s="3" cm="1">
         <f t="array" aca="1" ref="B66" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C66" s="3">
         <f ca="1">+VLOOKUP(A66,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3999</v>
       </c>
       <c r="D66" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ref="D66:D129" ca="1" si="1">+RANDBETWEEN(1,13)</f>
+        <v>4</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>141</v>
@@ -3879,19 +3892,19 @@
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="3" cm="1">
         <f t="array" aca="1" ref="A67" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5300</v>
+        <v>5340</v>
       </c>
       <c r="B67" s="3" cm="1">
         <f t="array" aca="1" ref="B67" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C67" s="3">
         <f ca="1">+VLOOKUP(A67,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D67" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>141</v>
@@ -3924,19 +3937,19 @@
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="3" cm="1">
         <f t="array" aca="1" ref="A68" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4650</v>
+        <v>5090</v>
       </c>
       <c r="B68" s="3" cm="1">
         <f t="array" aca="1" ref="B68" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="C68" s="3">
         <f ca="1">+VLOOKUP(A68,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D68" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>141</v>
@@ -3969,19 +3982,19 @@
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="3" cm="1">
         <f t="array" aca="1" ref="A69" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>5280</v>
       </c>
       <c r="B69" s="3" cm="1">
         <f t="array" aca="1" ref="B69" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C69" s="3">
         <f ca="1">+VLOOKUP(A69,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D69" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>141</v>
@@ -4014,19 +4027,19 @@
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="3" cm="1">
         <f t="array" aca="1" ref="A70" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4690</v>
+        <v>5000</v>
       </c>
       <c r="B70" s="3" cm="1">
         <f t="array" aca="1" ref="B70" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C70" s="3">
         <f ca="1">+VLOOKUP(A70,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D70" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>141</v>
@@ -4059,19 +4072,19 @@
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="3" cm="1">
         <f t="array" aca="1" ref="A71" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5310</v>
+        <v>4760</v>
       </c>
       <c r="B71" s="3" cm="1">
         <f t="array" aca="1" ref="B71" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C71" s="3">
         <f ca="1">+VLOOKUP(A71,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D71" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>141</v>
@@ -4104,7 +4117,7 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="3" cm="1">
         <f t="array" aca="1" ref="A72" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4840</v>
+        <v>5090</v>
       </c>
       <c r="B72" s="3" cm="1">
         <f t="array" aca="1" ref="B72" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
@@ -4112,11 +4125,11 @@
       </c>
       <c r="C72" s="3">
         <f ca="1">+VLOOKUP(A72,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D72" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>141</v>
@@ -4149,19 +4162,19 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="3" cm="1">
         <f t="array" aca="1" ref="A73" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4950</v>
+        <v>4990</v>
       </c>
       <c r="B73" s="3" cm="1">
         <f t="array" aca="1" ref="B73" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C73" s="3">
         <f ca="1">+VLOOKUP(A73,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D73" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>141</v>
@@ -4194,19 +4207,19 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="3" cm="1">
         <f t="array" aca="1" ref="A74" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4990</v>
+        <v>5290</v>
       </c>
       <c r="B74" s="3" cm="1">
         <f t="array" aca="1" ref="B74" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C74" s="3">
         <f ca="1">+VLOOKUP(A74,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D74" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>141</v>
@@ -4243,15 +4256,15 @@
       </c>
       <c r="B75" s="3" cm="1">
         <f t="array" aca="1" ref="B75" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C75" s="3">
         <f ca="1">+VLOOKUP(A75,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D75" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>141</v>
@@ -4284,19 +4297,19 @@
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="3" cm="1">
         <f t="array" aca="1" ref="A76" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4830</v>
+        <v>4790</v>
       </c>
       <c r="B76" s="3" cm="1">
         <f t="array" aca="1" ref="B76" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="C76" s="3">
         <f ca="1">+VLOOKUP(A76,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D76" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>141</v>
@@ -4329,18 +4342,18 @@
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="3" cm="1">
         <f t="array" aca="1" ref="A77" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5070</v>
+        <v>4910</v>
       </c>
       <c r="B77" s="3" cm="1">
         <f t="array" aca="1" ref="B77" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C77" s="3">
         <f ca="1">+VLOOKUP(A77,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="D77" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -4374,19 +4387,19 @@
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="3" cm="1">
         <f t="array" aca="1" ref="A78" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5230</v>
+        <v>5180</v>
       </c>
       <c r="B78" s="3" cm="1">
         <f t="array" aca="1" ref="B78" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C78" s="3">
         <f ca="1">+VLOOKUP(A78,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3399</v>
       </c>
       <c r="D78" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>141</v>
@@ -4419,19 +4432,19 @@
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="3" cm="1">
         <f t="array" aca="1" ref="A79" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4920</v>
+        <v>4950</v>
       </c>
       <c r="B79" s="3" cm="1">
         <f t="array" aca="1" ref="B79" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C79" s="3">
         <f ca="1">+VLOOKUP(A79,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D79" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>141</v>
@@ -4464,19 +4477,19 @@
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="3" cm="1">
         <f t="array" aca="1" ref="A80" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5130</v>
+        <v>5260</v>
       </c>
       <c r="B80" s="3" cm="1">
         <f t="array" aca="1" ref="B80" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C80" s="3">
         <f ca="1">+VLOOKUP(A80,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D80" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>141</v>
@@ -4509,7 +4522,7 @@
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="3" cm="1">
         <f t="array" aca="1" ref="A81" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5070</v>
+        <v>4970</v>
       </c>
       <c r="B81" s="3" cm="1">
         <f t="array" aca="1" ref="B81" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
@@ -4517,11 +4530,11 @@
       </c>
       <c r="C81" s="3">
         <f ca="1">+VLOOKUP(A81,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3399</v>
       </c>
       <c r="D81" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>141</v>
@@ -4554,19 +4567,19 @@
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="3" cm="1">
         <f t="array" aca="1" ref="A82" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>5120</v>
       </c>
       <c r="B82" s="3" cm="1">
         <f t="array" aca="1" ref="B82" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C82" s="3">
         <f ca="1">+VLOOKUP(A82,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D82" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>12</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>141</v>
@@ -4599,18 +4612,18 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="3" cm="1">
         <f t="array" aca="1" ref="A83" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4980</v>
+        <v>5230</v>
       </c>
       <c r="B83" s="3" cm="1">
         <f t="array" aca="1" ref="B83" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C83" s="3">
         <f ca="1">+VLOOKUP(A83,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D83" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -4644,19 +4657,19 @@
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="3" cm="1">
         <f t="array" aca="1" ref="A84" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5070</v>
+        <v>5110</v>
       </c>
       <c r="B84" s="3" cm="1">
         <f t="array" aca="1" ref="B84" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84" s="3">
         <f ca="1">+VLOOKUP(A84,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3399</v>
       </c>
       <c r="D84" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>141</v>
@@ -4689,19 +4702,19 @@
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="3" cm="1">
         <f t="array" aca="1" ref="A85" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4680</v>
+        <v>5070</v>
       </c>
       <c r="B85" s="3" cm="1">
         <f t="array" aca="1" ref="B85" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="C85" s="3">
         <f ca="1">+VLOOKUP(A85,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D85" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>141</v>
@@ -4734,19 +4747,19 @@
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="3" cm="1">
         <f t="array" aca="1" ref="A86" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5000</v>
-      </c>
-      <c r="B86" s="3" cm="1">
+        <v>5170</v>
+      </c>
+      <c r="B86" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B86" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>101</v>
+        <v>id</v>
       </c>
       <c r="C86" s="3">
         <f ca="1">+VLOOKUP(A86,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="D86" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>141</v>
@@ -4779,19 +4792,19 @@
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="3" cm="1">
         <f t="array" aca="1" ref="A87" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5200</v>
+        <v>5180</v>
       </c>
       <c r="B87" s="3" cm="1">
         <f t="array" aca="1" ref="B87" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C87" s="3">
         <f ca="1">+VLOOKUP(A87,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D87" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>141</v>
@@ -4824,19 +4837,19 @@
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="3" cm="1">
         <f t="array" aca="1" ref="A88" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4670</v>
+        <v>4830</v>
       </c>
       <c r="B88" s="3" cm="1">
         <f t="array" aca="1" ref="B88" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3">
         <f ca="1">+VLOOKUP(A88,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="D88" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>141</v>
@@ -4869,19 +4882,19 @@
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="3" cm="1">
         <f t="array" aca="1" ref="A89" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5310</v>
+        <v>5350</v>
       </c>
       <c r="B89" s="3" cm="1">
         <f t="array" aca="1" ref="B89" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3">
         <f ca="1">+VLOOKUP(A89,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D89" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>141</v>
@@ -4914,19 +4927,19 @@
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="3" cm="1">
         <f t="array" aca="1" ref="A90" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5160</v>
+        <v>5020</v>
       </c>
       <c r="B90" s="3" cm="1">
         <f t="array" aca="1" ref="B90" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="C90" s="3">
         <f ca="1">+VLOOKUP(A90,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D90" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>141</v>
@@ -4959,19 +4972,19 @@
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="3" cm="1">
         <f t="array" aca="1" ref="A91" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5140</v>
+        <v>5090</v>
       </c>
       <c r="B91" s="3" cm="1">
         <f t="array" aca="1" ref="B91" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C91" s="3">
         <f ca="1">+VLOOKUP(A91,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>2999</v>
       </c>
       <c r="D91" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>141</v>
@@ -5004,19 +5017,19 @@
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="3" cm="1">
         <f t="array" aca="1" ref="A92" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5100</v>
+        <v>5090</v>
       </c>
       <c r="B92" s="3" cm="1">
         <f t="array" aca="1" ref="B92" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="C92" s="3">
         <f ca="1">+VLOOKUP(A92,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D92" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>141</v>
@@ -5049,19 +5062,19 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="3" cm="1">
         <f t="array" aca="1" ref="A93" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>4850</v>
       </c>
       <c r="B93" s="3" cm="1">
         <f t="array" aca="1" ref="B93" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C93" s="3">
         <f ca="1">+VLOOKUP(A93,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D93" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>141</v>
@@ -5094,19 +5107,19 @@
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="3" cm="1">
         <f t="array" aca="1" ref="A94" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5180</v>
+        <v>4900</v>
       </c>
       <c r="B94" s="3" cm="1">
         <f t="array" aca="1" ref="B94" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C94" s="3">
         <f ca="1">+VLOOKUP(A94,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D94" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>141</v>
@@ -5139,19 +5152,19 @@
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="3" cm="1">
         <f t="array" aca="1" ref="A95" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4900</v>
+        <v>4650</v>
       </c>
       <c r="B95" s="3" cm="1">
         <f t="array" aca="1" ref="B95" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C95" s="3">
         <f ca="1">+VLOOKUP(A95,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D95" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>141</v>
@@ -5184,19 +5197,19 @@
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="3" cm="1">
         <f t="array" aca="1" ref="A96" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4730</v>
+        <v>5180</v>
       </c>
       <c r="B96" s="3" cm="1">
         <f t="array" aca="1" ref="B96" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C96" s="3">
         <f ca="1">+VLOOKUP(A96,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D96" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>141</v>
@@ -5229,19 +5242,19 @@
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="3" cm="1">
         <f t="array" aca="1" ref="A97" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4780</v>
+        <v>4770</v>
       </c>
       <c r="B97" s="3" cm="1">
         <f t="array" aca="1" ref="B97" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C97" s="3">
         <f ca="1">+VLOOKUP(A97,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D97" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>141</v>
@@ -5274,19 +5287,19 @@
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="3" cm="1">
         <f t="array" aca="1" ref="A98" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5090</v>
+        <v>4970</v>
       </c>
       <c r="B98" s="3" cm="1">
         <f t="array" aca="1" ref="B98" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="C98" s="3">
         <f ca="1">+VLOOKUP(A98,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D98" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>141</v>
@@ -5317,21 +5330,21 @@
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="str" cm="1">
+      <c r="A99" s="3" cm="1">
         <f t="array" aca="1" ref="A99" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>upc</v>
+        <v>4870</v>
       </c>
       <c r="B99" s="3" cm="1">
         <f t="array" aca="1" ref="B99" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>39</v>
-      </c>
-      <c r="C99" s="3" t="str">
+        <v>29</v>
+      </c>
+      <c r="C99" s="3">
         <f ca="1">+VLOOKUP(A99,productos!$A$1:$H$74,7,0)</f>
-        <v>precio</v>
+        <v>1999</v>
       </c>
       <c r="D99" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>141</v>
@@ -5364,18 +5377,18 @@
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="3" cm="1">
         <f t="array" aca="1" ref="A100" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5140</v>
+        <v>5230</v>
       </c>
       <c r="B100" s="3" cm="1">
         <f t="array" aca="1" ref="B100" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="C100" s="3">
         <f ca="1">+VLOOKUP(A100,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D100" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="F100" s="3" t="s">
@@ -5409,19 +5422,19 @@
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="3" cm="1">
         <f t="array" aca="1" ref="A101" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4890</v>
+        <v>4760</v>
       </c>
       <c r="B101" s="3" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C101" s="3">
         <f ca="1">+VLOOKUP(A101,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D101" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>141</v>
@@ -5454,19 +5467,19 @@
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="3" cm="1">
         <f t="array" aca="1" ref="A102" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5360</v>
+        <v>5080</v>
       </c>
       <c r="B102" s="3" cm="1">
         <f t="array" aca="1" ref="B102" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="C102" s="3">
         <f ca="1">+VLOOKUP(A102,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D102" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>141</v>
@@ -5499,19 +5512,19 @@
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="3" cm="1">
         <f t="array" aca="1" ref="A103" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4950</v>
+        <v>4810</v>
       </c>
       <c r="B103" s="3" cm="1">
         <f t="array" aca="1" ref="B103" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C103" s="3">
         <f ca="1">+VLOOKUP(A103,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D103" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>141</v>
@@ -5544,19 +5557,19 @@
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="3" cm="1">
         <f t="array" aca="1" ref="A104" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5210</v>
+        <v>4980</v>
       </c>
       <c r="B104" s="3" cm="1">
         <f t="array" aca="1" ref="B104" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C104" s="3">
         <f ca="1">+VLOOKUP(A104,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D104" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
       </c>
       <c r="F104" s="3" t="s">
         <v>141</v>
@@ -5589,19 +5602,19 @@
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="3" cm="1">
         <f t="array" aca="1" ref="A105" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5130</v>
+        <v>5300</v>
       </c>
       <c r="B105" s="3" cm="1">
         <f t="array" aca="1" ref="B105" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C105" s="3">
         <f ca="1">+VLOOKUP(A105,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D105" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F105" s="3" t="s">
         <v>141</v>
@@ -5634,19 +5647,19 @@
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="3" cm="1">
         <f t="array" aca="1" ref="A106" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5280</v>
+        <v>4810</v>
       </c>
       <c r="B106" s="3" cm="1">
         <f t="array" aca="1" ref="B106" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C106" s="3">
         <f ca="1">+VLOOKUP(A106,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D106" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>13</v>
       </c>
       <c r="F106" s="3" t="s">
         <v>141</v>
@@ -5679,19 +5692,19 @@
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="3" cm="1">
         <f t="array" aca="1" ref="A107" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4660</v>
+        <v>4870</v>
       </c>
       <c r="B107" s="3" cm="1">
         <f t="array" aca="1" ref="B107" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C107" s="3">
         <f ca="1">+VLOOKUP(A107,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>1999</v>
       </c>
       <c r="D107" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>141</v>
@@ -5724,19 +5737,19 @@
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="3" cm="1">
         <f t="array" aca="1" ref="A108" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5230</v>
+        <v>5000</v>
       </c>
       <c r="B108" s="3" cm="1">
         <f t="array" aca="1" ref="B108" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="C108" s="3">
         <f ca="1">+VLOOKUP(A108,productos!$A$1:$H$74,7,0)</f>
         <v>1999</v>
       </c>
       <c r="D108" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>141</v>
@@ -5769,18 +5782,18 @@
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="3" cm="1">
         <f t="array" aca="1" ref="A109" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5070</v>
+        <v>5110</v>
       </c>
       <c r="B109" s="3" cm="1">
         <f t="array" aca="1" ref="B109" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="C109" s="3">
         <f ca="1">+VLOOKUP(A109,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3399</v>
       </c>
       <c r="D109" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
       <c r="F109" s="3" t="s">
@@ -5814,19 +5827,19 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="3" cm="1">
         <f t="array" aca="1" ref="A110" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>5320</v>
       </c>
       <c r="B110" s="3" cm="1">
         <f t="array" aca="1" ref="B110" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="C110" s="3">
         <f ca="1">+VLOOKUP(A110,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D110" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
       </c>
       <c r="F110" s="3" t="s">
         <v>141</v>
@@ -5859,19 +5872,19 @@
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="3" cm="1">
         <f t="array" aca="1" ref="A111" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4720</v>
+        <v>5100</v>
       </c>
       <c r="B111" s="3" cm="1">
         <f t="array" aca="1" ref="B111" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="C111" s="3">
         <f ca="1">+VLOOKUP(A111,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D111" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>141</v>
@@ -5904,19 +5917,19 @@
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="3" cm="1">
         <f t="array" aca="1" ref="A112" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5030</v>
-      </c>
-      <c r="B112" s="3" t="str" cm="1">
+        <v>4660</v>
+      </c>
+      <c r="B112" s="3" cm="1">
         <f t="array" aca="1" ref="B112" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>id</v>
+        <v>39</v>
       </c>
       <c r="C112" s="3">
         <f ca="1">+VLOOKUP(A112,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D112" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>141</v>
@@ -5949,19 +5962,19 @@
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="3" cm="1">
         <f t="array" aca="1" ref="A113" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5000</v>
+        <v>4920</v>
       </c>
       <c r="B113" s="3" cm="1">
         <f t="array" aca="1" ref="B113" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="C113" s="3">
         <f ca="1">+VLOOKUP(A113,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>4999</v>
       </c>
       <c r="D113" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>141</v>
@@ -5994,19 +6007,19 @@
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="3" cm="1">
         <f t="array" aca="1" ref="A114" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4670</v>
+        <v>4870</v>
       </c>
       <c r="B114" s="3" cm="1">
         <f t="array" aca="1" ref="B114" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C114" s="3">
         <f ca="1">+VLOOKUP(A114,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>1999</v>
       </c>
       <c r="D114" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>141</v>
@@ -6039,18 +6052,18 @@
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="3" cm="1">
         <f t="array" aca="1" ref="A115" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5090</v>
+        <v>4710</v>
       </c>
       <c r="B115" s="3" cm="1">
         <f t="array" aca="1" ref="B115" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C115" s="3">
         <f ca="1">+VLOOKUP(A115,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D115" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>13</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -6084,19 +6097,19 @@
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="3" cm="1">
         <f t="array" aca="1" ref="A116" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5160</v>
+        <v>5060</v>
       </c>
       <c r="B116" s="3" cm="1">
         <f t="array" aca="1" ref="B116" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="C116" s="3">
         <f ca="1">+VLOOKUP(A116,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>5999</v>
       </c>
       <c r="D116" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>141</v>
@@ -6129,19 +6142,19 @@
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="3" cm="1">
         <f t="array" aca="1" ref="A117" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="B117" s="3" cm="1">
         <f t="array" aca="1" ref="B117" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="C117" s="3">
         <f ca="1">+VLOOKUP(A117,productos!$A$1:$H$74,7,0)</f>
-        <v>1799</v>
+        <v>4999</v>
       </c>
       <c r="D117" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>141</v>
@@ -6174,19 +6187,19 @@
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="3" cm="1">
         <f t="array" aca="1" ref="A118" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4910</v>
+        <v>5300</v>
       </c>
       <c r="B118" s="3" cm="1">
         <f t="array" aca="1" ref="B118" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C118" s="3">
         <f ca="1">+VLOOKUP(A118,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D118" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>141</v>
@@ -6219,19 +6232,19 @@
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="3" cm="1">
         <f t="array" aca="1" ref="A119" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5370</v>
+        <v>5350</v>
       </c>
       <c r="B119" s="3" cm="1">
         <f t="array" aca="1" ref="B119" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C119" s="3">
         <f ca="1">+VLOOKUP(A119,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D119" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F119" s="3" t="s">
         <v>141</v>
@@ -6264,18 +6277,18 @@
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="3" cm="1">
         <f t="array" aca="1" ref="A120" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5270</v>
+        <v>5280</v>
       </c>
       <c r="B120" s="3" cm="1">
         <f t="array" aca="1" ref="B120" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="C120" s="3">
         <f ca="1">+VLOOKUP(A120,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D120" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="F120" s="3" t="s">
@@ -6309,19 +6322,19 @@
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="3" cm="1">
         <f t="array" aca="1" ref="A121" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4650</v>
+        <v>5280</v>
       </c>
       <c r="B121" s="3" cm="1">
         <f t="array" aca="1" ref="B121" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C121" s="3">
         <f ca="1">+VLOOKUP(A121,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="D121" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>141</v>
@@ -6354,18 +6367,18 @@
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="3" cm="1">
         <f t="array" aca="1" ref="A122" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4770</v>
+        <v>4990</v>
       </c>
       <c r="B122" s="3" cm="1">
         <f t="array" aca="1" ref="B122" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C122" s="3">
         <f ca="1">+VLOOKUP(A122,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D122" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
       <c r="F122" s="3" t="s">
@@ -6399,19 +6412,19 @@
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="3" cm="1">
         <f t="array" aca="1" ref="A123" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5270</v>
+        <v>5080</v>
       </c>
       <c r="B123" s="3" cm="1">
         <f t="array" aca="1" ref="B123" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C123" s="3">
         <f ca="1">+VLOOKUP(A123,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D123" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F123" s="3" t="s">
         <v>141</v>
@@ -6444,19 +6457,19 @@
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="3" cm="1">
         <f t="array" aca="1" ref="A124" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5230</v>
+        <v>5180</v>
       </c>
       <c r="B124" s="3" cm="1">
         <f t="array" aca="1" ref="B124" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="C124" s="3">
         <f ca="1">+VLOOKUP(A124,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3399</v>
       </c>
       <c r="D124" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="F124" s="3" t="s">
         <v>141</v>
@@ -6489,19 +6502,19 @@
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="3" cm="1">
         <f t="array" aca="1" ref="A125" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4950</v>
+        <v>4790</v>
       </c>
       <c r="B125" s="3" cm="1">
         <f t="array" aca="1" ref="B125" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C125" s="3">
         <f ca="1">+VLOOKUP(A125,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D125" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="F125" s="3" t="s">
         <v>141</v>
@@ -6534,19 +6547,19 @@
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="3" cm="1">
         <f t="array" aca="1" ref="A126" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5080</v>
+        <v>4740</v>
       </c>
       <c r="B126" s="3" cm="1">
         <f t="array" aca="1" ref="B126" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C126" s="3">
         <f ca="1">+VLOOKUP(A126,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>1999</v>
       </c>
       <c r="D126" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>141</v>
@@ -6579,19 +6592,19 @@
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="3" cm="1">
         <f t="array" aca="1" ref="A127" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4850</v>
+        <v>4980</v>
       </c>
       <c r="B127" s="3" cm="1">
         <f t="array" aca="1" ref="B127" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="C127" s="3">
         <f ca="1">+VLOOKUP(A127,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D127" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>141</v>
@@ -6624,19 +6637,19 @@
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="3" cm="1">
         <f t="array" aca="1" ref="A128" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5330</v>
+        <v>5310</v>
       </c>
       <c r="B128" s="3" cm="1">
         <f t="array" aca="1" ref="B128" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="C128" s="3">
         <f ca="1">+VLOOKUP(A128,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D128" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>141</v>
@@ -6669,19 +6682,19 @@
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="3" cm="1">
         <f t="array" aca="1" ref="A129" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5060</v>
-      </c>
-      <c r="B129" s="3" t="str" cm="1">
+        <v>5270</v>
+      </c>
+      <c r="B129" s="3" cm="1">
         <f t="array" aca="1" ref="B129" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>id</v>
+        <v>94</v>
       </c>
       <c r="C129" s="3">
         <f ca="1">+VLOOKUP(A129,productos!$A$1:$H$74,7,0)</f>
-        <v>5999</v>
+        <v>3999</v>
       </c>
       <c r="D129" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>141</v>
@@ -6714,19 +6727,19 @@
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="3" cm="1">
         <f t="array" aca="1" ref="A130" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5070</v>
+        <v>4810</v>
       </c>
       <c r="B130" s="3" cm="1">
         <f t="array" aca="1" ref="B130" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C130" s="3">
         <f ca="1">+VLOOKUP(A130,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3399</v>
       </c>
       <c r="D130" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ref="D130:D193" ca="1" si="2">+RANDBETWEEN(1,13)</f>
+        <v>8</v>
       </c>
       <c r="F130" s="3" t="s">
         <v>141</v>
@@ -6763,15 +6776,15 @@
       </c>
       <c r="B131" s="3" cm="1">
         <f t="array" aca="1" ref="B131" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>111</v>
+        <v>37</v>
       </c>
       <c r="C131" s="3">
         <f ca="1">+VLOOKUP(A131,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D131" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>141</v>
@@ -6804,19 +6817,19 @@
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="3" cm="1">
         <f t="array" aca="1" ref="A132" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5040</v>
+        <v>4810</v>
       </c>
       <c r="B132" s="3" cm="1">
         <f t="array" aca="1" ref="B132" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C132" s="3">
         <f ca="1">+VLOOKUP(A132,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D132" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>141</v>
@@ -6849,19 +6862,19 @@
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="3" cm="1">
         <f t="array" aca="1" ref="A133" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5060</v>
+        <v>5300</v>
       </c>
       <c r="B133" s="3" cm="1">
         <f t="array" aca="1" ref="B133" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C133" s="3">
         <f ca="1">+VLOOKUP(A133,productos!$A$1:$H$74,7,0)</f>
-        <v>5999</v>
+        <v>3399</v>
       </c>
       <c r="D133" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>141</v>
@@ -6894,19 +6907,19 @@
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="3" cm="1">
         <f t="array" aca="1" ref="A134" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4930</v>
+        <v>5110</v>
       </c>
       <c r="B134" s="3" cm="1">
         <f t="array" aca="1" ref="B134" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>5</v>
+        <v>106</v>
       </c>
       <c r="C134" s="3">
         <f ca="1">+VLOOKUP(A134,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D134" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="F134" s="3" t="s">
         <v>141</v>
@@ -6939,18 +6952,18 @@
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="3" cm="1">
         <f t="array" aca="1" ref="A135" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4680</v>
+        <v>5170</v>
       </c>
       <c r="B135" s="3" cm="1">
         <f t="array" aca="1" ref="B135" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="C135" s="3">
         <f ca="1">+VLOOKUP(A135,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D135" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="F135" s="3" t="s">
@@ -6984,19 +6997,19 @@
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="3" cm="1">
         <f t="array" aca="1" ref="A136" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5260</v>
-      </c>
-      <c r="B136" s="3" cm="1">
+        <v>5210</v>
+      </c>
+      <c r="B136" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B136" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>93</v>
+        <v>id</v>
       </c>
       <c r="C136" s="3">
         <f ca="1">+VLOOKUP(A136,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D136" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>141</v>
@@ -7029,19 +7042,19 @@
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="3" cm="1">
         <f t="array" aca="1" ref="A137" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5070</v>
-      </c>
-      <c r="B137" s="3" cm="1">
+        <v>4950</v>
+      </c>
+      <c r="B137" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B137" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>77</v>
+        <v>id</v>
       </c>
       <c r="C137" s="3">
         <f ca="1">+VLOOKUP(A137,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3999</v>
       </c>
       <c r="D137" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>141</v>
@@ -7074,19 +7087,19 @@
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="3" cm="1">
         <f t="array" aca="1" ref="A138" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>5000</v>
       </c>
       <c r="B138" s="3" cm="1">
         <f t="array" aca="1" ref="B138" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C138" s="3">
         <f ca="1">+VLOOKUP(A138,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>1999</v>
       </c>
       <c r="D138" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>141</v>
@@ -7119,19 +7132,19 @@
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="3" cm="1">
         <f t="array" aca="1" ref="A139" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4750</v>
+        <v>4780</v>
       </c>
       <c r="B139" s="3" cm="1">
         <f t="array" aca="1" ref="B139" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="C139" s="3">
         <f ca="1">+VLOOKUP(A139,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D139" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>141</v>
@@ -7164,19 +7177,19 @@
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="3" cm="1">
         <f t="array" aca="1" ref="A140" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>4850</v>
       </c>
       <c r="B140" s="3" cm="1">
         <f t="array" aca="1" ref="B140" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C140" s="3">
         <f ca="1">+VLOOKUP(A140,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D140" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>141</v>
@@ -7209,19 +7222,19 @@
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="3" cm="1">
         <f t="array" aca="1" ref="A141" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4810</v>
+        <v>5080</v>
       </c>
       <c r="B141" s="3" cm="1">
         <f t="array" aca="1" ref="B141" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C141" s="3">
         <f ca="1">+VLOOKUP(A141,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D141" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F141" s="3" t="s">
         <v>141</v>
@@ -7254,19 +7267,19 @@
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="3" cm="1">
         <f t="array" aca="1" ref="A142" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5190</v>
+        <v>5200</v>
       </c>
       <c r="B142" s="3" cm="1">
         <f t="array" aca="1" ref="B142" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C142" s="3">
         <f ca="1">+VLOOKUP(A142,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D142" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
       </c>
       <c r="F142" s="3" t="s">
         <v>141</v>
@@ -7299,19 +7312,19 @@
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="3" cm="1">
         <f t="array" aca="1" ref="A143" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5350</v>
+        <v>4810</v>
       </c>
       <c r="B143" s="3" cm="1">
         <f t="array" aca="1" ref="B143" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C143" s="3">
         <f ca="1">+VLOOKUP(A143,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D143" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>141</v>
@@ -7344,19 +7357,19 @@
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="3" cm="1">
         <f t="array" aca="1" ref="A144" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4840</v>
+        <v>5170</v>
       </c>
       <c r="B144" s="3" cm="1">
         <f t="array" aca="1" ref="B144" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C144" s="3">
         <f ca="1">+VLOOKUP(A144,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D144" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>141</v>
@@ -7389,19 +7402,19 @@
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="3" cm="1">
         <f t="array" aca="1" ref="A145" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5350</v>
+        <v>4830</v>
       </c>
       <c r="B145" s="3" cm="1">
         <f t="array" aca="1" ref="B145" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C145" s="3">
         <f ca="1">+VLOOKUP(A145,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D145" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
       </c>
       <c r="F145" s="3" t="s">
         <v>141</v>
@@ -7434,19 +7447,19 @@
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="3" cm="1">
         <f t="array" aca="1" ref="A146" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4720</v>
+        <v>4830</v>
       </c>
       <c r="B146" s="3" cm="1">
         <f t="array" aca="1" ref="B146" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C146" s="3">
         <f ca="1">+VLOOKUP(A146,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D146" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>141</v>
@@ -7479,19 +7492,19 @@
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="3" cm="1">
         <f t="array" aca="1" ref="A147" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4970</v>
+        <v>4750</v>
       </c>
       <c r="B147" s="3" cm="1">
         <f t="array" aca="1" ref="B147" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C147" s="3">
         <f ca="1">+VLOOKUP(A147,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D147" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>141</v>
@@ -7524,19 +7537,19 @@
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="3" cm="1">
         <f t="array" aca="1" ref="A148" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>4980</v>
       </c>
       <c r="B148" s="3" cm="1">
         <f t="array" aca="1" ref="B148" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C148" s="3">
         <f ca="1">+VLOOKUP(A148,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D148" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
       </c>
       <c r="F148" s="3" t="s">
         <v>141</v>
@@ -7569,19 +7582,19 @@
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="3" cm="1">
         <f t="array" aca="1" ref="A149" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4730</v>
+        <v>4710</v>
       </c>
       <c r="B149" s="3" cm="1">
         <f t="array" aca="1" ref="B149" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C149" s="3">
         <f ca="1">+VLOOKUP(A149,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D149" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>141</v>
@@ -7614,19 +7627,19 @@
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="3" cm="1">
         <f t="array" aca="1" ref="A150" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4920</v>
+        <v>5180</v>
       </c>
       <c r="B150" s="3" cm="1">
         <f t="array" aca="1" ref="B150" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="C150" s="3">
         <f ca="1">+VLOOKUP(A150,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D150" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>141</v>
@@ -7659,19 +7672,19 @@
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="3" cm="1">
         <f t="array" aca="1" ref="A151" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4720</v>
+        <v>5110</v>
       </c>
       <c r="B151" s="3" cm="1">
         <f t="array" aca="1" ref="B151" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C151" s="3">
         <f ca="1">+VLOOKUP(A151,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D151" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>141</v>
@@ -7704,19 +7717,19 @@
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="3" cm="1">
         <f t="array" aca="1" ref="A152" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="B152" s="3" cm="1">
         <f t="array" aca="1" ref="B152" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C152" s="3">
         <f ca="1">+VLOOKUP(A152,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D152" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>141</v>
@@ -7749,18 +7762,18 @@
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="3" cm="1">
         <f t="array" aca="1" ref="A153" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4760</v>
+        <v>4970</v>
       </c>
       <c r="B153" s="3" cm="1">
         <f t="array" aca="1" ref="B153" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C153" s="3">
         <f ca="1">+VLOOKUP(A153,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D153" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>13</v>
       </c>
       <c r="F153" s="3" t="s">
@@ -7794,7 +7807,7 @@
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="3" cm="1">
         <f t="array" aca="1" ref="A154" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5290</v>
+        <v>4760</v>
       </c>
       <c r="B154" s="3" cm="1">
         <f t="array" aca="1" ref="B154" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
@@ -7802,11 +7815,11 @@
       </c>
       <c r="C154" s="3">
         <f ca="1">+VLOOKUP(A154,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D154" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>141</v>
@@ -7839,19 +7852,19 @@
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="3" cm="1">
         <f t="array" aca="1" ref="A155" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5330</v>
+        <v>5150</v>
       </c>
       <c r="B155" s="3" cm="1">
         <f t="array" aca="1" ref="B155" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C155" s="3">
         <f ca="1">+VLOOKUP(A155,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D155" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>141</v>
@@ -7884,18 +7897,18 @@
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="3" cm="1">
         <f t="array" aca="1" ref="A156" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4920</v>
+        <v>4710</v>
       </c>
       <c r="B156" s="3" cm="1">
         <f t="array" aca="1" ref="B156" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="C156" s="3">
         <f ca="1">+VLOOKUP(A156,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>2999</v>
       </c>
       <c r="D156" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
       <c r="F156" s="3" t="s">
@@ -7929,19 +7942,19 @@
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="3" cm="1">
         <f t="array" aca="1" ref="A157" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4980</v>
+        <v>4720</v>
       </c>
       <c r="B157" s="3" cm="1">
         <f t="array" aca="1" ref="B157" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C157" s="3">
         <f ca="1">+VLOOKUP(A157,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>2999</v>
       </c>
       <c r="D157" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="F157" s="3" t="s">
         <v>141</v>
@@ -7978,14 +7991,14 @@
       </c>
       <c r="B158" s="3" cm="1">
         <f t="array" aca="1" ref="B158" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C158" s="3">
         <f ca="1">+VLOOKUP(A158,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D158" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>6</v>
       </c>
       <c r="F158" s="3" t="s">
@@ -8019,19 +8032,19 @@
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="3" cm="1">
         <f t="array" aca="1" ref="A159" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4750</v>
+        <v>5180</v>
       </c>
       <c r="B159" s="3" cm="1">
         <f t="array" aca="1" ref="B159" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C159" s="3">
         <f ca="1">+VLOOKUP(A159,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D159" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>141</v>
@@ -8064,19 +8077,19 @@
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="3" cm="1">
         <f t="array" aca="1" ref="A160" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5100</v>
+        <v>5340</v>
       </c>
       <c r="B160" s="3" cm="1">
         <f t="array" aca="1" ref="B160" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C160" s="3">
         <f ca="1">+VLOOKUP(A160,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D160" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>6</v>
       </c>
       <c r="F160" s="3" t="s">
         <v>141</v>
@@ -8109,19 +8122,19 @@
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="3" cm="1">
         <f t="array" aca="1" ref="A161" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5370</v>
+        <v>5090</v>
       </c>
       <c r="B161" s="3" cm="1">
         <f t="array" aca="1" ref="B161" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C161" s="3">
         <f ca="1">+VLOOKUP(A161,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D161" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>141</v>
@@ -8154,18 +8167,18 @@
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="3" cm="1">
         <f t="array" aca="1" ref="A162" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4930</v>
+        <v>4920</v>
       </c>
       <c r="B162" s="3" cm="1">
         <f t="array" aca="1" ref="B162" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C162" s="3">
         <f ca="1">+VLOOKUP(A162,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D162" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>7</v>
       </c>
       <c r="F162" s="3" t="s">
@@ -8199,19 +8212,19 @@
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="3" cm="1">
         <f t="array" aca="1" ref="A163" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5360</v>
+        <v>5280</v>
       </c>
       <c r="B163" s="3" cm="1">
         <f t="array" aca="1" ref="B163" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="C163" s="3">
         <f ca="1">+VLOOKUP(A163,productos!$A$1:$H$74,7,0)</f>
         <v>3999</v>
       </c>
       <c r="D163" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>141</v>
@@ -8244,19 +8257,19 @@
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="3" cm="1">
         <f t="array" aca="1" ref="A164" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>5090</v>
       </c>
       <c r="B164" s="3" cm="1">
         <f t="array" aca="1" ref="B164" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C164" s="3">
         <f ca="1">+VLOOKUP(A164,productos!$A$1:$H$74,7,0)</f>
         <v>2999</v>
       </c>
       <c r="D164" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>141</v>
@@ -8289,19 +8302,19 @@
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="3" cm="1">
         <f t="array" aca="1" ref="A165" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5140</v>
+        <v>4920</v>
       </c>
       <c r="B165" s="3" cm="1">
         <f t="array" aca="1" ref="B165" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C165" s="3">
         <f ca="1">+VLOOKUP(A165,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D165" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>141</v>
@@ -8334,19 +8347,19 @@
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="3" cm="1">
         <f t="array" aca="1" ref="A166" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4710</v>
-      </c>
-      <c r="B166" s="3" t="str" cm="1">
+        <v>5180</v>
+      </c>
+      <c r="B166" s="3" cm="1">
         <f t="array" aca="1" ref="B166" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>id</v>
+        <v>113</v>
       </c>
       <c r="C166" s="3">
         <f ca="1">+VLOOKUP(A166,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D166" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>141</v>
@@ -8379,19 +8392,19 @@
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="3" cm="1">
         <f t="array" aca="1" ref="A167" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4820</v>
+        <v>4960</v>
       </c>
       <c r="B167" s="3" cm="1">
         <f t="array" aca="1" ref="B167" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C167" s="3">
         <f ca="1">+VLOOKUP(A167,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D167" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>141</v>
@@ -8424,19 +8437,19 @@
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="3" cm="1">
         <f t="array" aca="1" ref="A168" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4730</v>
+        <v>5290</v>
       </c>
       <c r="B168" s="3" cm="1">
         <f t="array" aca="1" ref="B168" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="C168" s="3">
         <f ca="1">+VLOOKUP(A168,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D168" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F168" s="3" t="s">
         <v>141</v>
@@ -8469,18 +8482,18 @@
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="3" cm="1">
         <f t="array" aca="1" ref="A169" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4920</v>
+        <v>4760</v>
       </c>
       <c r="B169" s="3" cm="1">
         <f t="array" aca="1" ref="B169" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C169" s="3">
         <f ca="1">+VLOOKUP(A169,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D169" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>3</v>
       </c>
       <c r="F169" s="3" t="s">
@@ -8514,18 +8527,18 @@
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="3" cm="1">
         <f t="array" aca="1" ref="A170" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4790</v>
+        <v>4990</v>
       </c>
       <c r="B170" s="3" cm="1">
         <f t="array" aca="1" ref="B170" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C170" s="3">
         <f ca="1">+VLOOKUP(A170,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D170" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>8</v>
       </c>
       <c r="F170" s="3" t="s">
@@ -8559,19 +8572,19 @@
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="3" cm="1">
         <f t="array" aca="1" ref="A171" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5290</v>
+        <v>5180</v>
       </c>
       <c r="B171" s="3" cm="1">
         <f t="array" aca="1" ref="B171" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C171" s="3">
         <f ca="1">+VLOOKUP(A171,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D171" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>141</v>
@@ -8604,19 +8617,19 @@
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="3" cm="1">
         <f t="array" aca="1" ref="A172" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5060</v>
-      </c>
-      <c r="B172" s="3" cm="1">
+        <v>4740</v>
+      </c>
+      <c r="B172" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="B172" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>85</v>
+        <v>id</v>
       </c>
       <c r="C172" s="3">
         <f ca="1">+VLOOKUP(A172,productos!$A$1:$H$74,7,0)</f>
-        <v>5999</v>
+        <v>1999</v>
       </c>
       <c r="D172" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F172" s="3" t="s">
         <v>141</v>
@@ -8649,19 +8662,19 @@
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="3" cm="1">
         <f t="array" aca="1" ref="A173" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5130</v>
+        <v>4780</v>
       </c>
       <c r="B173" s="3" cm="1">
         <f t="array" aca="1" ref="B173" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C173" s="3">
         <f ca="1">+VLOOKUP(A173,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D173" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>141</v>
@@ -8694,19 +8707,19 @@
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="3" cm="1">
         <f t="array" aca="1" ref="A174" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5260</v>
+        <v>5110</v>
       </c>
       <c r="B174" s="3" cm="1">
         <f t="array" aca="1" ref="B174" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C174" s="3">
         <f ca="1">+VLOOKUP(A174,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D174" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="F174" s="3" t="s">
         <v>141</v>
@@ -8739,19 +8752,19 @@
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="3" cm="1">
         <f t="array" aca="1" ref="A175" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5200</v>
+        <v>5020</v>
       </c>
       <c r="B175" s="3" cm="1">
         <f t="array" aca="1" ref="B175" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C175" s="3">
         <f ca="1">+VLOOKUP(A175,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D175" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>141</v>
@@ -8784,19 +8797,19 @@
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="3" cm="1">
         <f t="array" aca="1" ref="A176" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4850</v>
+        <v>4800</v>
       </c>
       <c r="B176" s="3" cm="1">
         <f t="array" aca="1" ref="B176" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C176" s="3">
         <f ca="1">+VLOOKUP(A176,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D176" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="F176" s="3" t="s">
         <v>141</v>
@@ -8827,21 +8840,21 @@
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="str" cm="1">
+      <c r="A177" s="3" cm="1">
         <f t="array" aca="1" ref="A177" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>upc</v>
+        <v>4720</v>
       </c>
       <c r="B177" s="3" cm="1">
         <f t="array" aca="1" ref="B177" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>95</v>
-      </c>
-      <c r="C177" s="3" t="str">
+        <v>88</v>
+      </c>
+      <c r="C177" s="3">
         <f ca="1">+VLOOKUP(A177,productos!$A$1:$H$74,7,0)</f>
-        <v>precio</v>
+        <v>2999</v>
       </c>
       <c r="D177" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>141</v>
@@ -8874,19 +8887,19 @@
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="3" cm="1">
         <f t="array" aca="1" ref="A178" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5310</v>
+        <v>5220</v>
       </c>
       <c r="B178" s="3" cm="1">
         <f t="array" aca="1" ref="B178" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C178" s="3">
         <f ca="1">+VLOOKUP(A178,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>1999</v>
       </c>
       <c r="D178" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F178" s="3" t="s">
         <v>141</v>
@@ -8919,19 +8932,19 @@
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="3" cm="1">
         <f t="array" aca="1" ref="A179" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5010</v>
+        <v>4660</v>
       </c>
       <c r="B179" s="3" cm="1">
         <f t="array" aca="1" ref="B179" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C179" s="3">
         <f ca="1">+VLOOKUP(A179,productos!$A$1:$H$74,7,0)</f>
-        <v>1799</v>
+        <v>3399</v>
       </c>
       <c r="D179" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>141</v>
@@ -8964,18 +8977,18 @@
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="3" cm="1">
         <f t="array" aca="1" ref="A180" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4910</v>
+        <v>5260</v>
       </c>
       <c r="B180" s="3" cm="1">
         <f t="array" aca="1" ref="B180" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="C180" s="3">
         <f ca="1">+VLOOKUP(A180,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D180" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>5</v>
       </c>
       <c r="F180" s="3" t="s">
@@ -9009,19 +9022,19 @@
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="3" cm="1">
         <f t="array" aca="1" ref="A181" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>4870</v>
       </c>
       <c r="B181" s="3" cm="1">
         <f t="array" aca="1" ref="B181" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C181" s="3">
         <f ca="1">+VLOOKUP(A181,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>1999</v>
       </c>
       <c r="D181" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>141</v>
@@ -9054,19 +9067,19 @@
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="3" cm="1">
         <f t="array" aca="1" ref="A182" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4950</v>
+        <v>5120</v>
       </c>
       <c r="B182" s="3" cm="1">
         <f t="array" aca="1" ref="B182" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C182" s="3">
         <f ca="1">+VLOOKUP(A182,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D182" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F182" s="3" t="s">
         <v>141</v>
@@ -9099,18 +9112,18 @@
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="3" cm="1">
         <f t="array" aca="1" ref="A183" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4680</v>
+        <v>5090</v>
       </c>
       <c r="B183" s="3" cm="1">
         <f t="array" aca="1" ref="B183" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C183" s="3">
         <f ca="1">+VLOOKUP(A183,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>2999</v>
       </c>
       <c r="D183" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>9</v>
       </c>
       <c r="F183" s="3" t="s">
@@ -9144,19 +9157,19 @@
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="3" cm="1">
         <f t="array" aca="1" ref="A184" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5190</v>
+        <v>5180</v>
       </c>
       <c r="B184" s="3" cm="1">
         <f t="array" aca="1" ref="B184" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="C184" s="3">
         <f ca="1">+VLOOKUP(A184,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D184" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>3</v>
       </c>
       <c r="F184" s="3" t="s">
         <v>141</v>
@@ -9189,19 +9202,19 @@
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="3" cm="1">
         <f t="array" aca="1" ref="A185" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5190</v>
+        <v>5030</v>
       </c>
       <c r="B185" s="3" cm="1">
         <f t="array" aca="1" ref="B185" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C185" s="3">
         <f ca="1">+VLOOKUP(A185,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D185" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F185" s="3" t="s">
         <v>141</v>
@@ -9234,19 +9247,19 @@
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="3" cm="1">
         <f t="array" aca="1" ref="A186" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4720</v>
+        <v>4930</v>
       </c>
       <c r="B186" s="3" cm="1">
         <f t="array" aca="1" ref="B186" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C186" s="3">
         <f ca="1">+VLOOKUP(A186,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3999</v>
       </c>
       <c r="D186" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>13</v>
       </c>
       <c r="F186" s="3" t="s">
         <v>141</v>
@@ -9279,19 +9292,19 @@
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="3" cm="1">
         <f t="array" aca="1" ref="A187" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4920</v>
+        <v>5360</v>
       </c>
       <c r="B187" s="3" cm="1">
         <f t="array" aca="1" ref="B187" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C187" s="3">
         <f ca="1">+VLOOKUP(A187,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D187" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>141</v>
@@ -9324,19 +9337,19 @@
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="3" cm="1">
         <f t="array" aca="1" ref="A188" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4980</v>
+        <v>5130</v>
       </c>
       <c r="B188" s="3" cm="1">
         <f t="array" aca="1" ref="B188" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C188" s="3">
         <f ca="1">+VLOOKUP(A188,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D188" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
       </c>
       <c r="F188" s="3" t="s">
         <v>141</v>
@@ -9369,19 +9382,19 @@
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="3" cm="1">
         <f t="array" aca="1" ref="A189" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5090</v>
+        <v>5160</v>
       </c>
       <c r="B189" s="3" cm="1">
         <f t="array" aca="1" ref="B189" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C189" s="3">
         <f ca="1">+VLOOKUP(A189,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D189" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
       </c>
       <c r="F189" s="3" t="s">
         <v>141</v>
@@ -9414,19 +9427,19 @@
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="3" cm="1">
         <f t="array" aca="1" ref="A190" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5220</v>
+        <v>4850</v>
       </c>
       <c r="B190" s="3" cm="1">
         <f t="array" aca="1" ref="B190" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C190" s="3">
         <f ca="1">+VLOOKUP(A190,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>2999</v>
       </c>
       <c r="D190" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
       </c>
       <c r="F190" s="3" t="s">
         <v>141</v>
@@ -9459,19 +9472,19 @@
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="3" cm="1">
         <f t="array" aca="1" ref="A191" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4770</v>
+        <v>5310</v>
       </c>
       <c r="B191" s="3" cm="1">
         <f t="array" aca="1" ref="B191" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="C191" s="3">
         <f ca="1">+VLOOKUP(A191,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D191" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>12</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>141</v>
@@ -9504,19 +9517,19 @@
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="3" cm="1">
         <f t="array" aca="1" ref="A192" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4800</v>
+        <v>5080</v>
       </c>
       <c r="B192" s="3" cm="1">
         <f t="array" aca="1" ref="B192" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="C192" s="3">
         <f ca="1">+VLOOKUP(A192,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>2999</v>
       </c>
       <c r="D192" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>11</v>
       </c>
       <c r="F192" s="3" t="s">
         <v>141</v>
@@ -9549,19 +9562,19 @@
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="3" cm="1">
         <f t="array" aca="1" ref="A193" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>4740</v>
       </c>
       <c r="B193" s="3" cm="1">
         <f t="array" aca="1" ref="B193" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C193" s="3">
         <f ca="1">+VLOOKUP(A193,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>1999</v>
       </c>
       <c r="D193" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>8</v>
       </c>
       <c r="F193" s="3" t="s">
         <v>141</v>
@@ -9594,19 +9607,19 @@
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="3" cm="1">
         <f t="array" aca="1" ref="A194" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4680</v>
+        <v>4790</v>
       </c>
       <c r="B194" s="3" cm="1">
         <f t="array" aca="1" ref="B194" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C194" s="3">
         <f ca="1">+VLOOKUP(A194,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D194" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ref="D194:D244" ca="1" si="3">+RANDBETWEEN(1,13)</f>
+        <v>1</v>
       </c>
       <c r="F194" s="3" t="s">
         <v>141</v>
@@ -9639,19 +9652,19 @@
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="3" cm="1">
         <f t="array" aca="1" ref="A195" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5060</v>
+        <v>5220</v>
       </c>
       <c r="B195" s="3" cm="1">
         <f t="array" aca="1" ref="B195" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>108</v>
+        <v>8</v>
       </c>
       <c r="C195" s="3">
         <f ca="1">+VLOOKUP(A195,productos!$A$1:$H$74,7,0)</f>
-        <v>5999</v>
+        <v>1999</v>
       </c>
       <c r="D195" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>141</v>
@@ -9684,19 +9697,19 @@
     <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" s="3" cm="1">
         <f t="array" aca="1" ref="A196" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4820</v>
+        <v>5220</v>
       </c>
       <c r="B196" s="3" cm="1">
         <f t="array" aca="1" ref="B196" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C196" s="3">
         <f ca="1">+VLOOKUP(A196,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>1999</v>
       </c>
       <c r="D196" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="F196" s="3" t="s">
         <v>141</v>
@@ -9729,19 +9742,19 @@
     <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" s="3" cm="1">
         <f t="array" aca="1" ref="A197" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>4810</v>
       </c>
       <c r="B197" s="3" cm="1">
         <f t="array" aca="1" ref="B197" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="C197" s="3">
         <f ca="1">+VLOOKUP(A197,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D197" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>11</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="F197" s="3" t="s">
         <v>141</v>
@@ -9774,19 +9787,19 @@
     <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" s="3" cm="1">
         <f t="array" aca="1" ref="A198" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5260</v>
+        <v>5220</v>
       </c>
       <c r="B198" s="3" cm="1">
         <f t="array" aca="1" ref="B198" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C198" s="3">
         <f ca="1">+VLOOKUP(A198,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>1999</v>
       </c>
       <c r="D198" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="F198" s="3" t="s">
         <v>141</v>
@@ -9819,19 +9832,19 @@
     <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" s="3" cm="1">
         <f t="array" aca="1" ref="A199" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4980</v>
+        <v>5130</v>
       </c>
       <c r="B199" s="3" cm="1">
         <f t="array" aca="1" ref="B199" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C199" s="3">
         <f ca="1">+VLOOKUP(A199,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D199" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>141</v>
@@ -9864,19 +9877,19 @@
     <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" s="3" cm="1">
         <f t="array" aca="1" ref="A200" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4890</v>
+        <v>4920</v>
       </c>
       <c r="B200" s="3" cm="1">
         <f t="array" aca="1" ref="B200" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C200" s="3">
         <f ca="1">+VLOOKUP(A200,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D200" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="F200" s="3" t="s">
         <v>141</v>
@@ -9909,18 +9922,18 @@
     <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" s="3" cm="1">
         <f t="array" aca="1" ref="A201" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5130</v>
+        <v>4710</v>
       </c>
       <c r="B201" s="3" cm="1">
         <f t="array" aca="1" ref="B201" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C201" s="3">
         <f ca="1">+VLOOKUP(A201,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>2999</v>
       </c>
       <c r="D201" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="F201" s="3" t="s">
@@ -9954,19 +9967,19 @@
     <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" s="3" cm="1">
         <f t="array" aca="1" ref="A202" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4780</v>
+        <v>5330</v>
       </c>
       <c r="B202" s="3" cm="1">
         <f t="array" aca="1" ref="B202" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="C202" s="3">
         <f ca="1">+VLOOKUP(A202,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D202" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="F202" s="3" t="s">
         <v>141</v>
@@ -9997,21 +10010,21 @@
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="str" cm="1">
+      <c r="A203" s="3" cm="1">
         <f t="array" aca="1" ref="A203" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>upc</v>
+        <v>4730</v>
       </c>
       <c r="B203" s="3" cm="1">
         <f t="array" aca="1" ref="B203" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>37</v>
-      </c>
-      <c r="C203" s="3" t="str">
+        <v>83</v>
+      </c>
+      <c r="C203" s="3">
         <f ca="1">+VLOOKUP(A203,productos!$A$1:$H$74,7,0)</f>
-        <v>precio</v>
+        <v>2999</v>
       </c>
       <c r="D203" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>141</v>
@@ -10044,19 +10057,19 @@
     <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" s="3" cm="1">
         <f t="array" aca="1" ref="A204" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5330</v>
+        <v>5300</v>
       </c>
       <c r="B204" s="3" cm="1">
         <f t="array" aca="1" ref="B204" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C204" s="3">
         <f ca="1">+VLOOKUP(A204,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D204" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
       <c r="F204" s="3" t="s">
         <v>141</v>
@@ -10089,19 +10102,19 @@
     <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" s="3" cm="1">
         <f t="array" aca="1" ref="A205" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5090</v>
+        <v>4960</v>
       </c>
       <c r="B205" s="3" cm="1">
         <f t="array" aca="1" ref="B205" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C205" s="3">
         <f ca="1">+VLOOKUP(A205,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D205" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F205" s="3" t="s">
         <v>141</v>
@@ -10134,19 +10147,19 @@
     <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" s="3" cm="1">
         <f t="array" aca="1" ref="A206" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>5290</v>
       </c>
       <c r="B206" s="3" cm="1">
         <f t="array" aca="1" ref="B206" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C206" s="3">
         <f ca="1">+VLOOKUP(A206,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D206" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="F206" s="3" t="s">
         <v>141</v>
@@ -10179,19 +10192,19 @@
     <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" s="3" cm="1">
         <f t="array" aca="1" ref="A207" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4970</v>
+        <v>4990</v>
       </c>
       <c r="B207" s="3" cm="1">
         <f t="array" aca="1" ref="B207" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C207" s="3">
         <f ca="1">+VLOOKUP(A207,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D207" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>141</v>
@@ -10224,19 +10237,19 @@
     <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" s="3" cm="1">
         <f t="array" aca="1" ref="A208" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5030</v>
+        <v>5220</v>
       </c>
       <c r="B208" s="3" cm="1">
         <f t="array" aca="1" ref="B208" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="C208" s="3">
         <f ca="1">+VLOOKUP(A208,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D208" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="F208" s="3" t="s">
         <v>141</v>
@@ -10269,19 +10282,19 @@
     <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" s="3" cm="1">
         <f t="array" aca="1" ref="A209" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5130</v>
+        <v>5160</v>
       </c>
       <c r="B209" s="3" cm="1">
         <f t="array" aca="1" ref="B209" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="C209" s="3">
         <f ca="1">+VLOOKUP(A209,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D209" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="F209" s="3" t="s">
         <v>141</v>
@@ -10314,19 +10327,19 @@
     <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" s="3" cm="1">
         <f t="array" aca="1" ref="A210" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4780</v>
+        <v>5320</v>
       </c>
       <c r="B210" s="3" cm="1">
         <f t="array" aca="1" ref="B210" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="C210" s="3">
         <f ca="1">+VLOOKUP(A210,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D210" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F210" s="3" t="s">
         <v>141</v>
@@ -10359,19 +10372,19 @@
     <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" s="3" cm="1">
         <f t="array" aca="1" ref="A211" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5020</v>
+        <v>5270</v>
       </c>
       <c r="B211" s="3" cm="1">
         <f t="array" aca="1" ref="B211" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C211" s="3">
         <f ca="1">+VLOOKUP(A211,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D211" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>141</v>
@@ -10404,19 +10417,19 @@
     <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" s="3" cm="1">
         <f t="array" aca="1" ref="A212" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4710</v>
+        <v>4900</v>
       </c>
       <c r="B212" s="3" cm="1">
         <f t="array" aca="1" ref="B212" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="C212" s="3">
         <f ca="1">+VLOOKUP(A212,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D212" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="F212" s="3" t="s">
         <v>141</v>
@@ -10449,19 +10462,19 @@
     <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" s="3" cm="1">
         <f t="array" aca="1" ref="A213" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5340</v>
+        <v>4680</v>
       </c>
       <c r="B213" s="3" cm="1">
         <f t="array" aca="1" ref="B213" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="C213" s="3">
         <f ca="1">+VLOOKUP(A213,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D213" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="F213" s="3" t="s">
         <v>141</v>
@@ -10494,19 +10507,19 @@
     <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" s="3" cm="1">
         <f t="array" aca="1" ref="A214" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5240</v>
+        <v>5310</v>
       </c>
       <c r="B214" s="3" cm="1">
         <f t="array" aca="1" ref="B214" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="C214" s="3">
         <f ca="1">+VLOOKUP(A214,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>3399</v>
       </c>
       <c r="D214" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
       <c r="F214" s="3" t="s">
         <v>141</v>
@@ -10539,18 +10552,18 @@
     <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" s="3" cm="1">
         <f t="array" aca="1" ref="A215" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5310</v>
+        <v>4950</v>
       </c>
       <c r="B215" s="3" cm="1">
         <f t="array" aca="1" ref="B215" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C215" s="3">
         <f ca="1">+VLOOKUP(A215,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="D215" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>11</v>
       </c>
       <c r="F215" s="3" t="s">
@@ -10584,19 +10597,19 @@
     <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" s="3" cm="1">
         <f t="array" aca="1" ref="A216" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5370</v>
+        <v>5290</v>
       </c>
       <c r="B216" s="3" cm="1">
         <f t="array" aca="1" ref="B216" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="C216" s="3">
         <f ca="1">+VLOOKUP(A216,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D216" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F216" s="3" t="s">
         <v>141</v>
@@ -10629,19 +10642,19 @@
     <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" s="3" cm="1">
         <f t="array" aca="1" ref="A217" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4700</v>
+        <v>5050</v>
       </c>
       <c r="B217" s="3" cm="1">
         <f t="array" aca="1" ref="B217" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C217" s="3">
         <f ca="1">+VLOOKUP(A217,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D217" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="F217" s="3" t="s">
         <v>141</v>
@@ -10674,7 +10687,7 @@
     <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" s="3" cm="1">
         <f t="array" aca="1" ref="A218" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5170</v>
+        <v>5230</v>
       </c>
       <c r="B218" s="3" cm="1">
         <f t="array" aca="1" ref="B218" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
@@ -10682,11 +10695,11 @@
       </c>
       <c r="C218" s="3">
         <f ca="1">+VLOOKUP(A218,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>1999</v>
       </c>
       <c r="D218" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>12</v>
       </c>
       <c r="F218" s="3" t="s">
         <v>141</v>
@@ -10719,19 +10732,19 @@
     <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" s="3" cm="1">
         <f t="array" aca="1" ref="A219" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5250</v>
+        <v>4920</v>
       </c>
       <c r="B219" s="3" cm="1">
         <f t="array" aca="1" ref="B219" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C219" s="3">
         <f ca="1">+VLOOKUP(A219,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D219" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>141</v>
@@ -10764,19 +10777,19 @@
     <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" s="3" cm="1">
         <f t="array" aca="1" ref="A220" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4940</v>
+        <v>4730</v>
       </c>
       <c r="B220" s="3" cm="1">
         <f t="array" aca="1" ref="B220" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C220" s="3">
         <f ca="1">+VLOOKUP(A220,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D220" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
       </c>
       <c r="F220" s="3" t="s">
         <v>141</v>
@@ -10809,19 +10822,19 @@
     <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" s="3" cm="1">
         <f t="array" aca="1" ref="A221" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5370</v>
+        <v>4720</v>
       </c>
       <c r="B221" s="3" cm="1">
         <f t="array" aca="1" ref="B221" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C221" s="3">
         <f ca="1">+VLOOKUP(A221,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D221" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F221" s="3" t="s">
         <v>141</v>
@@ -10854,19 +10867,19 @@
     <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" s="3" cm="1">
         <f t="array" aca="1" ref="A222" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4750</v>
+        <v>5200</v>
       </c>
       <c r="B222" s="3" cm="1">
         <f t="array" aca="1" ref="B222" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C222" s="3">
         <f ca="1">+VLOOKUP(A222,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D222" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
       </c>
       <c r="F222" s="3" t="s">
         <v>141</v>
@@ -10899,19 +10912,19 @@
     <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" s="3" cm="1">
         <f t="array" aca="1" ref="A223" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5000</v>
+        <v>4820</v>
       </c>
       <c r="B223" s="3" cm="1">
         <f t="array" aca="1" ref="B223" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C223" s="3">
         <f ca="1">+VLOOKUP(A223,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3999</v>
       </c>
       <c r="D223" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>141</v>
@@ -10944,19 +10957,19 @@
     <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" s="3" cm="1">
         <f t="array" aca="1" ref="A224" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4670</v>
+        <v>4870</v>
       </c>
       <c r="B224" s="3" cm="1">
         <f t="array" aca="1" ref="B224" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C224" s="3">
         <f ca="1">+VLOOKUP(A224,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>1999</v>
       </c>
       <c r="D224" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="F224" s="3" t="s">
         <v>141</v>
@@ -10989,19 +11002,19 @@
     <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" s="3" cm="1">
         <f t="array" aca="1" ref="A225" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5300</v>
+        <v>5140</v>
       </c>
       <c r="B225" s="3" cm="1">
         <f t="array" aca="1" ref="B225" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C225" s="3">
         <f ca="1">+VLOOKUP(A225,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D225" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F225" s="3" t="s">
         <v>141</v>
@@ -11038,15 +11051,15 @@
       </c>
       <c r="B226" s="3" cm="1">
         <f t="array" aca="1" ref="B226" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C226" s="3">
         <f ca="1">+VLOOKUP(A226,productos!$A$1:$H$74,7,0)</f>
         <v>3399</v>
       </c>
       <c r="D226" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F226" s="3" t="s">
         <v>141</v>
@@ -11077,21 +11090,21 @@
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A227" s="3" cm="1">
+      <c r="A227" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="A227" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5100</v>
+        <v>upc</v>
       </c>
       <c r="B227" s="3" cm="1">
         <f t="array" aca="1" ref="B227" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>38</v>
-      </c>
-      <c r="C227" s="3">
+        <v>69</v>
+      </c>
+      <c r="C227" s="3" t="str">
         <f ca="1">+VLOOKUP(A227,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>precio</v>
       </c>
       <c r="D227" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>141</v>
@@ -11124,19 +11137,19 @@
     <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" s="3" cm="1">
         <f t="array" aca="1" ref="A228" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4820</v>
+        <v>4890</v>
       </c>
       <c r="B228" s="3" cm="1">
         <f t="array" aca="1" ref="B228" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C228" s="3">
         <f ca="1">+VLOOKUP(A228,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="D228" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="F228" s="3" t="s">
         <v>141</v>
@@ -11169,19 +11182,19 @@
     <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" s="3" cm="1">
         <f t="array" aca="1" ref="A229" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4860</v>
+        <v>4680</v>
       </c>
       <c r="B229" s="3" cm="1">
         <f t="array" aca="1" ref="B229" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C229" s="3">
         <f ca="1">+VLOOKUP(A229,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D229" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>141</v>
@@ -11214,19 +11227,19 @@
     <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" s="3" cm="1">
         <f t="array" aca="1" ref="A230" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4790</v>
+        <v>5030</v>
       </c>
       <c r="B230" s="3" cm="1">
         <f t="array" aca="1" ref="B230" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="C230" s="3">
         <f ca="1">+VLOOKUP(A230,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D230" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="F230" s="3" t="s">
         <v>141</v>
@@ -11259,19 +11272,19 @@
     <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" s="3" cm="1">
         <f t="array" aca="1" ref="A231" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5190</v>
+        <v>4830</v>
       </c>
       <c r="B231" s="3" cm="1">
         <f t="array" aca="1" ref="B231" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C231" s="3">
         <f ca="1">+VLOOKUP(A231,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="D231" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>8</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="F231" s="3" t="s">
         <v>141</v>
@@ -11304,19 +11317,19 @@
     <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" s="3" cm="1">
         <f t="array" aca="1" ref="A232" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4770</v>
+        <v>5150</v>
       </c>
       <c r="B232" s="3" cm="1">
         <f t="array" aca="1" ref="B232" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C232" s="3">
         <f ca="1">+VLOOKUP(A232,productos!$A$1:$H$74,7,0)</f>
         <v>4999</v>
       </c>
       <c r="D232" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
       <c r="F232" s="3" t="s">
         <v>141</v>
@@ -11349,19 +11362,19 @@
     <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" s="3" cm="1">
         <f t="array" aca="1" ref="A233" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5320</v>
+        <v>5030</v>
       </c>
       <c r="B233" s="3" cm="1">
         <f t="array" aca="1" ref="B233" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="C233" s="3">
         <f ca="1">+VLOOKUP(A233,productos!$A$1:$H$74,7,0)</f>
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="D233" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="F233" s="3" t="s">
         <v>141</v>
@@ -11394,19 +11407,19 @@
     <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" s="3" cm="1">
         <f t="array" aca="1" ref="A234" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5160</v>
+        <v>5210</v>
       </c>
       <c r="B234" s="3" cm="1">
         <f t="array" aca="1" ref="B234" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C234" s="3">
         <f ca="1">+VLOOKUP(A234,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="D234" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="F234" s="3" t="s">
         <v>141</v>
@@ -11439,19 +11452,19 @@
     <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" s="3" cm="1">
         <f t="array" aca="1" ref="A235" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5230</v>
+        <v>5110</v>
       </c>
       <c r="B235" s="3" cm="1">
         <f t="array" aca="1" ref="B235" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C235" s="3">
         <f ca="1">+VLOOKUP(A235,productos!$A$1:$H$74,7,0)</f>
-        <v>1999</v>
+        <v>3399</v>
       </c>
       <c r="D235" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
       </c>
       <c r="F235" s="3" t="s">
         <v>141</v>
@@ -11484,19 +11497,19 @@
     <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" s="3" cm="1">
         <f t="array" aca="1" ref="A236" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4830</v>
+        <v>5330</v>
       </c>
       <c r="B236" s="3" cm="1">
         <f t="array" aca="1" ref="B236" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C236" s="3">
         <f ca="1">+VLOOKUP(A236,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>2999</v>
       </c>
       <c r="D236" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
       </c>
       <c r="F236" s="3" t="s">
         <v>141</v>
@@ -11527,21 +11540,21 @@
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A237" s="3" cm="1">
+      <c r="A237" s="3" t="str" cm="1">
         <f t="array" aca="1" ref="A237" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5360</v>
+        <v>upc</v>
       </c>
       <c r="B237" s="3" cm="1">
         <f t="array" aca="1" ref="B237" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>54</v>
-      </c>
-      <c r="C237" s="3">
+        <v>34</v>
+      </c>
+      <c r="C237" s="3" t="str">
         <f ca="1">+VLOOKUP(A237,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>precio</v>
       </c>
       <c r="D237" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="F237" s="3" t="s">
         <v>141</v>
@@ -11574,18 +11587,18 @@
     <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" s="3" cm="1">
         <f t="array" aca="1" ref="A238" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5310</v>
+        <v>5360</v>
       </c>
       <c r="B238" s="3" cm="1">
         <f t="array" aca="1" ref="B238" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C238" s="3">
         <f ca="1">+VLOOKUP(A238,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>3999</v>
       </c>
       <c r="D238" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="F238" s="3" t="s">
@@ -11619,18 +11632,18 @@
     <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" s="3" cm="1">
         <f t="array" aca="1" ref="A239" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5000</v>
+        <v>5230</v>
       </c>
       <c r="B239" s="3" cm="1">
         <f t="array" aca="1" ref="B239" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C239" s="3">
         <f ca="1">+VLOOKUP(A239,productos!$A$1:$H$74,7,0)</f>
         <v>1999</v>
       </c>
       <c r="D239" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>10</v>
       </c>
       <c r="F239" s="3" t="s">
@@ -11664,19 +11677,19 @@
     <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" s="3" cm="1">
         <f t="array" aca="1" ref="A240" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5020</v>
+        <v>4960</v>
       </c>
       <c r="B240" s="3" cm="1">
         <f t="array" aca="1" ref="B240" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C240" s="3">
         <f ca="1">+VLOOKUP(A240,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D240" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F240" s="3" t="s">
         <v>141</v>
@@ -11709,19 +11722,19 @@
     <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" s="3" cm="1">
         <f t="array" aca="1" ref="A241" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5130</v>
+        <v>5290</v>
       </c>
       <c r="B241" s="3" cm="1">
         <f t="array" aca="1" ref="B241" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C241" s="3">
         <f ca="1">+VLOOKUP(A241,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D241" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="F241" s="3" t="s">
         <v>141</v>
@@ -11754,19 +11767,19 @@
     <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" s="3" cm="1">
         <f t="array" aca="1" ref="A242" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>5110</v>
+        <v>5170</v>
       </c>
       <c r="B242" s="3" cm="1">
         <f t="array" aca="1" ref="B242" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C242" s="3">
         <f ca="1">+VLOOKUP(A242,productos!$A$1:$H$74,7,0)</f>
-        <v>3399</v>
+        <v>4999</v>
       </c>
       <c r="D242" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>12</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="F242" s="3" t="s">
         <v>141</v>
@@ -11799,19 +11812,19 @@
     <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" s="3" cm="1">
         <f t="array" aca="1" ref="A243" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4680</v>
+        <v>5310</v>
       </c>
       <c r="B243" s="3" cm="1">
         <f t="array" aca="1" ref="B243" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C243" s="3">
         <f ca="1">+VLOOKUP(A243,productos!$A$1:$H$74,7,0)</f>
-        <v>4999</v>
+        <v>3399</v>
       </c>
       <c r="D243" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
       </c>
       <c r="F243" s="3" t="s">
         <v>141</v>
@@ -11844,19 +11857,19 @@
     <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" s="3" cm="1">
         <f t="array" aca="1" ref="A244" ca="1">+INDEX(productos!A:A,RANDBETWEEN(1,COUNTA(productos!A:A)))</f>
-        <v>4940</v>
+        <v>4790</v>
       </c>
       <c r="B244" s="3" cm="1">
         <f t="array" aca="1" ref="B244" ca="1">+INDEX(ventas!A:A,RANDBETWEEN(1,COUNTA(ventas!A:A)))</f>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C244" s="3">
         <f ca="1">+VLOOKUP(A244,productos!$A$1:$H$74,7,0)</f>
-        <v>3999</v>
+        <v>3399</v>
       </c>
       <c r="D244" s="3">
-        <f ca="1">+RANDBETWEEN(1,13)</f>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
       </c>
       <c r="F244" s="3" t="s">
         <v>141</v>
@@ -14968,26 +14981,1939 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE0B2E3-2746-4479-A0E1-339D30091F4F}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>58</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>4650</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J2" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2">
+        <v>4650</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>142</v>
+      </c>
+      <c r="N2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>4660</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" t="s">
+        <v>145</v>
+      </c>
+      <c r="K3">
+        <v>4660</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4670</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4">
+        <v>4670</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>4680</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>142</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5">
+        <v>4680</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4690</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" t="s">
+        <v>145</v>
+      </c>
+      <c r="K6">
+        <v>4690</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4700</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
+      <c r="J7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K7">
+        <v>4700</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>4710</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8">
+        <v>4710</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>142</v>
+      </c>
+      <c r="N8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>4720</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9">
+        <v>4720</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>143</v>
+      </c>
+      <c r="N9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>4740</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>142</v>
+      </c>
+      <c r="J10" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10">
+        <v>4740</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>4750</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K11">
+        <v>4750</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>143</v>
+      </c>
+      <c r="N11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>4730</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12">
+        <v>4730</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>4760</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13">
+        <v>4760</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>4770</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14">
+        <v>4770</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>4780</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15">
+        <v>4780</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>143</v>
+      </c>
+      <c r="N15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>4800</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16">
+        <v>4800</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>4810</v>
+      </c>
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17">
+        <v>4810</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>4790</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>144</v>
+      </c>
+      <c r="J18" t="s">
+        <v>145</v>
+      </c>
+      <c r="K18">
+        <v>4790</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>4830</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19">
+        <v>4830</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>4840</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20">
+        <v>4840</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>143</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>4820</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21">
+        <v>4820</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>4860</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="J22" t="s">
+        <v>145</v>
+      </c>
+      <c r="K22">
+        <v>4860</v>
+      </c>
+      <c r="L22">
+        <v>8</v>
+      </c>
+      <c r="M22" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>4850</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" t="s">
+        <v>145</v>
+      </c>
+      <c r="K23">
+        <v>4850</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23" t="s">
+        <v>144</v>
+      </c>
+      <c r="N23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>4890</v>
+      </c>
+      <c r="C24">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>142</v>
+      </c>
+      <c r="J24" t="s">
+        <v>145</v>
+      </c>
+      <c r="K24">
+        <v>4890</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24" t="s">
+        <v>142</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>4870</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25">
+        <v>4870</v>
+      </c>
+      <c r="L25">
+        <v>9</v>
+      </c>
+      <c r="M25" t="s">
+        <v>143</v>
+      </c>
+      <c r="N25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>4900</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>143</v>
+      </c>
+      <c r="J26" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26">
+        <v>4900</v>
+      </c>
+      <c r="L26">
+        <v>9</v>
+      </c>
+      <c r="M26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <v>4880</v>
+      </c>
+      <c r="C27">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27">
+        <v>4880</v>
+      </c>
+      <c r="L27">
+        <v>9</v>
+      </c>
+      <c r="M27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <v>4910</v>
+      </c>
+      <c r="C28">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>144</v>
+      </c>
+      <c r="J28" t="s">
+        <v>145</v>
+      </c>
+      <c r="K28">
+        <v>4910</v>
+      </c>
+      <c r="L28">
+        <v>10</v>
+      </c>
+      <c r="M28" t="s">
+        <v>144</v>
+      </c>
+      <c r="N28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <v>4920</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>142</v>
+      </c>
+      <c r="J29" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29">
+        <v>4920</v>
+      </c>
+      <c r="L29">
+        <v>11</v>
+      </c>
+      <c r="M29" t="s">
+        <v>142</v>
+      </c>
+      <c r="N29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>4930</v>
+      </c>
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="J30" t="s">
+        <v>145</v>
+      </c>
+      <c r="K30">
+        <v>4930</v>
+      </c>
+      <c r="L30">
+        <v>11</v>
+      </c>
+      <c r="M30" t="s">
+        <v>143</v>
+      </c>
+      <c r="N30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <v>4940</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>144</v>
+      </c>
+      <c r="J31" t="s">
+        <v>145</v>
+      </c>
+      <c r="K31">
+        <v>4940</v>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31" t="s">
+        <v>144</v>
+      </c>
+      <c r="N31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <v>4950</v>
+      </c>
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>142</v>
+      </c>
+      <c r="J32" t="s">
+        <v>145</v>
+      </c>
+      <c r="K32">
+        <v>4950</v>
+      </c>
+      <c r="L32">
+        <v>13</v>
+      </c>
+      <c r="M32" t="s">
+        <v>142</v>
+      </c>
+      <c r="N32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33">
+        <v>4960</v>
+      </c>
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>143</v>
+      </c>
+      <c r="J33" t="s">
+        <v>145</v>
+      </c>
+      <c r="K33">
+        <v>4960</v>
+      </c>
+      <c r="L33">
+        <v>14</v>
+      </c>
+      <c r="M33" t="s">
+        <v>143</v>
+      </c>
+      <c r="N33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>4970</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="J34" t="s">
+        <v>145</v>
+      </c>
+      <c r="K34">
+        <v>4970</v>
+      </c>
+      <c r="L34">
+        <v>14</v>
+      </c>
+      <c r="M34" t="s">
+        <v>144</v>
+      </c>
+      <c r="N34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35">
+        <v>4980</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" t="s">
+        <v>145</v>
+      </c>
+      <c r="K35">
+        <v>4980</v>
+      </c>
+      <c r="L35">
+        <v>15</v>
+      </c>
+      <c r="M35" t="s">
+        <v>142</v>
+      </c>
+      <c r="N35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36">
+        <v>4990</v>
+      </c>
+      <c r="C36">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36" t="s">
+        <v>145</v>
+      </c>
+      <c r="K36">
+        <v>4990</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36" t="s">
+        <v>142</v>
+      </c>
+      <c r="N36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>5000</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" t="s">
+        <v>145</v>
+      </c>
+      <c r="K37">
+        <v>5000</v>
+      </c>
+      <c r="L37">
+        <v>20</v>
+      </c>
+      <c r="M37" t="s">
+        <v>143</v>
+      </c>
+      <c r="N37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>5010</v>
+      </c>
+      <c r="C38">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38" t="s">
+        <v>145</v>
+      </c>
+      <c r="K38">
+        <v>5010</v>
+      </c>
+      <c r="L38">
+        <v>21</v>
+      </c>
+      <c r="M38" t="s">
+        <v>142</v>
+      </c>
+      <c r="N38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>5020</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
+      <c r="J39" t="s">
+        <v>145</v>
+      </c>
+      <c r="K39">
+        <v>5020</v>
+      </c>
+      <c r="L39">
+        <v>21</v>
+      </c>
+      <c r="M39" t="s">
+        <v>143</v>
+      </c>
+      <c r="N39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B40">
+        <v>5030</v>
+      </c>
+      <c r="C40">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40" t="s">
+        <v>145</v>
+      </c>
+      <c r="K40">
+        <v>5030</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>142</v>
+      </c>
+      <c r="N40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B41">
+        <v>5040</v>
+      </c>
+      <c r="C41">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" t="s">
+        <v>145</v>
+      </c>
+      <c r="K41">
+        <v>5040</v>
+      </c>
+      <c r="L41">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>143</v>
+      </c>
+      <c r="N41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B42">
+        <v>5070</v>
+      </c>
+      <c r="C42">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42" t="s">
+        <v>145</v>
+      </c>
+      <c r="K42">
+        <v>5070</v>
+      </c>
+      <c r="L42">
+        <v>25</v>
+      </c>
+      <c r="M42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B43">
+        <v>5050</v>
+      </c>
+      <c r="C43">
+        <v>25</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="J43" t="s">
+        <v>145</v>
+      </c>
+      <c r="K43">
+        <v>5050</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43" t="s">
+        <v>143</v>
+      </c>
+      <c r="N43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44">
+        <v>5060</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>144</v>
+      </c>
+      <c r="J44" t="s">
+        <v>145</v>
+      </c>
+      <c r="K44">
+        <v>5060</v>
+      </c>
+      <c r="L44">
+        <v>25</v>
+      </c>
+      <c r="M44" t="s">
+        <v>144</v>
+      </c>
+      <c r="N44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>5100</v>
+      </c>
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45" t="s">
+        <v>145</v>
+      </c>
+      <c r="K45">
+        <v>5100</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45" t="s">
+        <v>142</v>
+      </c>
+      <c r="N45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>5080</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" t="s">
+        <v>145</v>
+      </c>
+      <c r="K46">
+        <v>5080</v>
+      </c>
+      <c r="L46">
+        <v>26</v>
+      </c>
+      <c r="M46" t="s">
+        <v>143</v>
+      </c>
+      <c r="N46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>5090</v>
+      </c>
+      <c r="C47">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="J47" t="s">
+        <v>145</v>
+      </c>
+      <c r="K47">
+        <v>5090</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47" t="s">
+        <v>144</v>
+      </c>
+      <c r="N47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>5110</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>143</v>
+      </c>
+      <c r="J48" t="s">
+        <v>145</v>
+      </c>
+      <c r="K48">
+        <v>5110</v>
+      </c>
+      <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48" t="s">
+        <v>143</v>
+      </c>
+      <c r="N48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>5120</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" t="s">
+        <v>145</v>
+      </c>
+      <c r="K49">
+        <v>5120</v>
+      </c>
+      <c r="L49">
+        <v>27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>144</v>
+      </c>
+      <c r="N49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>5130</v>
+      </c>
+      <c r="C50">
+        <v>28</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50" t="s">
+        <v>145</v>
+      </c>
+      <c r="K50">
+        <v>5130</v>
+      </c>
+      <c r="L50">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>142</v>
+      </c>
+      <c r="N50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>5140</v>
+      </c>
+      <c r="C51">
+        <v>29</v>
+      </c>
+      <c r="D51" t="s">
+        <v>143</v>
+      </c>
+      <c r="J51" t="s">
+        <v>145</v>
+      </c>
+      <c r="K51">
+        <v>5140</v>
+      </c>
+      <c r="L51">
+        <v>29</v>
+      </c>
+      <c r="M51" t="s">
+        <v>143</v>
+      </c>
+      <c r="N51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>5150</v>
+      </c>
+      <c r="C52">
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>144</v>
+      </c>
+      <c r="J52" t="s">
+        <v>145</v>
+      </c>
+      <c r="K52">
+        <v>5150</v>
+      </c>
+      <c r="L52">
+        <v>30</v>
+      </c>
+      <c r="M52" t="s">
+        <v>144</v>
+      </c>
+      <c r="N52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>5160</v>
+      </c>
+      <c r="C53">
+        <v>32</v>
+      </c>
+      <c r="D53" t="s">
+        <v>142</v>
+      </c>
+      <c r="J53" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53">
+        <v>5160</v>
+      </c>
+      <c r="L53">
+        <v>32</v>
+      </c>
+      <c r="M53" t="s">
+        <v>142</v>
+      </c>
+      <c r="N53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>5170</v>
+      </c>
+      <c r="C54">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>143</v>
+      </c>
+      <c r="J54" t="s">
+        <v>145</v>
+      </c>
+      <c r="K54">
+        <v>5170</v>
+      </c>
+      <c r="L54">
+        <v>33</v>
+      </c>
+      <c r="M54" t="s">
+        <v>143</v>
+      </c>
+      <c r="N54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>5180</v>
+      </c>
+      <c r="C55">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>144</v>
+      </c>
+      <c r="J55" t="s">
+        <v>145</v>
+      </c>
+      <c r="K55">
+        <v>5180</v>
+      </c>
+      <c r="L55">
+        <v>34</v>
+      </c>
+      <c r="M55" t="s">
+        <v>144</v>
+      </c>
+      <c r="N55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>5190</v>
+      </c>
+      <c r="C56">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56" t="s">
+        <v>145</v>
+      </c>
+      <c r="K56">
+        <v>5190</v>
+      </c>
+      <c r="L56">
+        <v>35</v>
+      </c>
+      <c r="M56" t="s">
+        <v>142</v>
+      </c>
+      <c r="N56" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>5200</v>
+      </c>
+      <c r="C57">
+        <v>35</v>
+      </c>
+      <c r="D57" t="s">
+        <v>143</v>
+      </c>
+      <c r="J57" t="s">
+        <v>145</v>
+      </c>
+      <c r="K57">
+        <v>5200</v>
+      </c>
+      <c r="L57">
+        <v>35</v>
+      </c>
+      <c r="M57" t="s">
+        <v>143</v>
+      </c>
+      <c r="N57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>5210</v>
+      </c>
+      <c r="C58">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+      <c r="J58" t="s">
+        <v>145</v>
+      </c>
+      <c r="K58">
+        <v>5210</v>
+      </c>
+      <c r="L58">
+        <v>36</v>
+      </c>
+      <c r="M58" t="s">
+        <v>144</v>
+      </c>
+      <c r="N58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>5220</v>
+      </c>
+      <c r="C59">
+        <v>37</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J59" t="s">
+        <v>145</v>
+      </c>
+      <c r="K59">
+        <v>5220</v>
+      </c>
+      <c r="L59">
+        <v>37</v>
+      </c>
+      <c r="M59" t="s">
+        <v>142</v>
+      </c>
+      <c r="N59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>5230</v>
+      </c>
+      <c r="C60">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>143</v>
+      </c>
+      <c r="J60" t="s">
+        <v>145</v>
+      </c>
+      <c r="K60">
+        <v>5230</v>
+      </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
+      <c r="M60" t="s">
+        <v>143</v>
+      </c>
+      <c r="N60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>5240</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+      <c r="J61" t="s">
+        <v>145</v>
+      </c>
+      <c r="K61">
+        <v>5240</v>
+      </c>
+      <c r="L61">
+        <v>40</v>
+      </c>
+      <c r="M61" t="s">
+        <v>144</v>
+      </c>
+      <c r="N61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>5250</v>
+      </c>
+      <c r="C62">
+        <v>41</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62" t="s">
+        <v>145</v>
+      </c>
+      <c r="K62">
+        <v>5250</v>
+      </c>
+      <c r="L62">
+        <v>41</v>
+      </c>
+      <c r="M62" t="s">
+        <v>142</v>
+      </c>
+      <c r="N62" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>5260</v>
+      </c>
+      <c r="C63">
+        <v>41</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+      <c r="J63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K63">
+        <v>5260</v>
+      </c>
+      <c r="L63">
+        <v>41</v>
+      </c>
+      <c r="M63" t="s">
+        <v>143</v>
+      </c>
+      <c r="N63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>5270</v>
+      </c>
+      <c r="C64">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>144</v>
+      </c>
+      <c r="J64" t="s">
+        <v>145</v>
+      </c>
+      <c r="K64">
+        <v>5270</v>
+      </c>
+      <c r="L64">
+        <v>41</v>
+      </c>
+      <c r="M64" t="s">
+        <v>144</v>
+      </c>
+      <c r="N64" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>5280</v>
+      </c>
+      <c r="C65">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>142</v>
+      </c>
+      <c r="J65" t="s">
+        <v>145</v>
+      </c>
+      <c r="K65">
+        <v>5280</v>
+      </c>
+      <c r="L65">
+        <v>43</v>
+      </c>
+      <c r="M65" t="s">
+        <v>142</v>
+      </c>
+      <c r="N65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B66">
+        <v>5290</v>
+      </c>
+      <c r="C66">
+        <v>43</v>
+      </c>
+      <c r="D66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J66" t="s">
+        <v>145</v>
+      </c>
+      <c r="K66">
+        <v>5290</v>
+      </c>
+      <c r="L66">
+        <v>43</v>
+      </c>
+      <c r="M66" t="s">
+        <v>143</v>
+      </c>
+      <c r="N66" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B67">
+        <v>5300</v>
+      </c>
+      <c r="C67">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>144</v>
+      </c>
+      <c r="J67" t="s">
+        <v>145</v>
+      </c>
+      <c r="K67">
+        <v>5300</v>
+      </c>
+      <c r="L67">
+        <v>44</v>
+      </c>
+      <c r="M67" t="s">
+        <v>144</v>
+      </c>
+      <c r="N67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B68">
+        <v>5310</v>
+      </c>
+      <c r="C68">
+        <v>45</v>
+      </c>
+      <c r="D68" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68" t="s">
+        <v>145</v>
+      </c>
+      <c r="K68">
+        <v>5310</v>
+      </c>
+      <c r="L68">
+        <v>45</v>
+      </c>
+      <c r="M68" t="s">
+        <v>142</v>
+      </c>
+      <c r="N68" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B69">
+        <v>5320</v>
+      </c>
+      <c r="C69">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" t="s">
+        <v>145</v>
+      </c>
+      <c r="K69">
+        <v>5320</v>
+      </c>
+      <c r="L69">
+        <v>46</v>
+      </c>
+      <c r="M69" t="s">
+        <v>143</v>
+      </c>
+      <c r="N69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B70">
+        <v>5330</v>
+      </c>
+      <c r="C70">
+        <v>46</v>
+      </c>
+      <c r="D70" t="s">
+        <v>144</v>
+      </c>
+      <c r="J70" t="s">
+        <v>145</v>
+      </c>
+      <c r="K70">
+        <v>5330</v>
+      </c>
+      <c r="L70">
+        <v>46</v>
+      </c>
+      <c r="M70" t="s">
+        <v>144</v>
+      </c>
+      <c r="N70" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B71">
+        <v>5340</v>
+      </c>
+      <c r="C71">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s">
+        <v>142</v>
+      </c>
+      <c r="J71" t="s">
+        <v>145</v>
+      </c>
+      <c r="K71">
+        <v>5340</v>
+      </c>
+      <c r="L71">
+        <v>47</v>
+      </c>
+      <c r="M71" t="s">
+        <v>142</v>
+      </c>
+      <c r="N71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B72">
+        <v>5350</v>
+      </c>
+      <c r="C72">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s">
+        <v>143</v>
+      </c>
+      <c r="J72" t="s">
+        <v>145</v>
+      </c>
+      <c r="K72">
+        <v>5350</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72" t="s">
+        <v>143</v>
+      </c>
+      <c r="N72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B73">
+        <v>5360</v>
+      </c>
+      <c r="C73">
+        <v>50</v>
+      </c>
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+      <c r="J73" t="s">
+        <v>145</v>
+      </c>
+      <c r="K73">
+        <v>5360</v>
+      </c>
+      <c r="L73">
+        <v>50</v>
+      </c>
+      <c r="M73" t="s">
+        <v>144</v>
+      </c>
+      <c r="N73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B74">
+        <v>5370</v>
+      </c>
+      <c r="C74">
+        <v>55</v>
+      </c>
+      <c r="D74" t="s">
+        <v>142</v>
+      </c>
+      <c r="J74" t="s">
+        <v>145</v>
+      </c>
+      <c r="K74">
+        <v>5370</v>
+      </c>
+      <c r="L74">
+        <v>55</v>
+      </c>
+      <c r="M74" t="s">
+        <v>142</v>
+      </c>
+      <c r="N74" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:D74" xr:uid="{52BB1EF4-01F3-448B-A638-B673F26F9105}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D74">
+      <sortCondition ref="C1:C74"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15336,8 +17262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEB5289-8B3E-4220-83C6-AA8E16F26196}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
